--- a/time19.xlsx
+++ b/time19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D478"/>
+  <dimension ref="A1:D301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.1237905599029</v>
+        <v>2.002411881905829</v>
       </c>
       <c r="C2" t="n">
-        <v>5.221655369154684</v>
+        <v>2.023483288419133</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0978648092517842</v>
+        <v>-0.02107140651330397</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.131599730801924</v>
+        <v>2.004161007472563</v>
       </c>
       <c r="C3" t="n">
-        <v>5.188252243774465</v>
+        <v>2.072086304039118</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.05665251297254059</v>
+        <v>-0.0679252965665551</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.140800036092688</v>
+        <v>2.045310368465797</v>
       </c>
       <c r="C4" t="n">
-        <v>5.282623244867509</v>
+        <v>2.091480792221494</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.141823208774821</v>
+        <v>-0.0461704237556968</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.197092986839474</v>
+        <v>2.063552952596913</v>
       </c>
       <c r="C5" t="n">
-        <v>5.320924754106141</v>
+        <v>2.133125219419348</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1238317672666671</v>
+        <v>-0.06957226682243478</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.211089545493486</v>
+        <v>2.065124213135613</v>
       </c>
       <c r="C6" t="n">
-        <v>5.259226655836438</v>
+        <v>2.121627759751983</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.04813711034295221</v>
+        <v>-0.05650354661636969</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.257622435037061</v>
+        <v>8.632684988198875</v>
       </c>
       <c r="C7" t="n">
-        <v>5.299894377798781</v>
+        <v>8.726592170882103</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04227194276171975</v>
+        <v>-0.09390718268322829</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5.271164351237146</v>
+        <v>8.655440747545425</v>
       </c>
       <c r="C8" t="n">
-        <v>5.273890524064388</v>
+        <v>8.665246670881993</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.002726172827242301</v>
+        <v>-0.009805923336568156</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>8.256655098498284</v>
+        <v>8.666910630844475</v>
       </c>
       <c r="C9" t="n">
-        <v>8.26260751401214</v>
+        <v>8.743452828789071</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.005952415513856835</v>
+        <v>-0.07654219794459571</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8.26362677702333</v>
+        <v>8.695009488358458</v>
       </c>
       <c r="C10" t="n">
-        <v>8.381043347503722</v>
+        <v>8.701407563671539</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1174165704803922</v>
+        <v>-0.006398075313081009</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8.272238248885259</v>
+        <v>8.700993863331931</v>
       </c>
       <c r="C11" t="n">
-        <v>8.372644089479497</v>
+        <v>8.748506912836772</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1004058405942381</v>
+        <v>-0.04751304950484148</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>8.275008131500186</v>
+        <v>8.740995666709203</v>
       </c>
       <c r="C12" t="n">
-        <v>8.356240735630038</v>
+        <v>8.750651210713826</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.08123260412985189</v>
+        <v>-0.009655544004623096</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>8.282847120003961</v>
+        <v>8.747387312668655</v>
       </c>
       <c r="C13" t="n">
-        <v>8.365973490622363</v>
+        <v>8.747741244779938</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08312637061840178</v>
+        <v>-0.0003539321112828731</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.311012942165418</v>
+        <v>8.770721491939662</v>
       </c>
       <c r="C14" t="n">
-        <v>8.390731864750567</v>
+        <v>8.830072622330391</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.07971892258514934</v>
+        <v>-0.05935113039072881</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.325533380176706</v>
+        <v>8.774132905390809</v>
       </c>
       <c r="C15" t="n">
-        <v>8.437983402926887</v>
+        <v>8.871488705113991</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1124500227501812</v>
+        <v>-0.0973557997231822</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>8.336216425067239</v>
+        <v>8.785739907957144</v>
       </c>
       <c r="C16" t="n">
-        <v>8.403162953320731</v>
+        <v>8.92067878109887</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.06694652825349223</v>
+        <v>-0.134938873141726</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>8.369035144969192</v>
+        <v>8.803368896747321</v>
       </c>
       <c r="C17" t="n">
-        <v>8.453402722158154</v>
+        <v>8.89721263989326</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.08436757718896182</v>
+        <v>-0.09384374314593913</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>8.373722591995547</v>
+        <v>8.806759298399164</v>
       </c>
       <c r="C18" t="n">
-        <v>8.40403051791456</v>
+        <v>8.884885518742578</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0303079259190131</v>
+        <v>-0.07812622034341388</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>8.394697911736632</v>
+        <v>8.834618366797148</v>
       </c>
       <c r="C19" t="n">
-        <v>8.412175307505391</v>
+        <v>8.861051123494514</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01747739576875951</v>
+        <v>-0.02643275669736589</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>8.441591498453986</v>
+        <v>8.88967393823458</v>
       </c>
       <c r="C20" t="n">
-        <v>8.450752834085993</v>
+        <v>8.928151952145164</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.009161335632006384</v>
+        <v>-0.03847801391058425</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.534258950328667</v>
+        <v>9.1413008080574</v>
       </c>
       <c r="C21" t="n">
-        <v>8.455018197232937</v>
+        <v>9.22259114893598</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0792407530957302</v>
+        <v>-0.08129034087857967</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.078471245049647</v>
+        <v>9.161640234321814</v>
       </c>
       <c r="C22" t="n">
-        <v>9.210031332506498</v>
+        <v>9.178965178660029</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.131560087456851</v>
+        <v>-0.01732494433821508</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.096238944476156</v>
+        <v>9.17661667935284</v>
       </c>
       <c r="C23" t="n">
-        <v>9.108260188133665</v>
+        <v>9.205428061559687</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.01202124365750912</v>
+        <v>-0.02881138220684676</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.128027311590618</v>
+        <v>9.178551168900187</v>
       </c>
       <c r="C24" t="n">
-        <v>9.172370513341631</v>
+        <v>9.23829472408454</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.04434320175101369</v>
+        <v>-0.05974355518435281</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.153280650289942</v>
+        <v>9.184884122008699</v>
       </c>
       <c r="C25" t="n">
-        <v>9.211341551210172</v>
+        <v>9.254409852488708</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0580609009202302</v>
+        <v>-0.06952573048000943</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.176224342479047</v>
+        <v>9.189010220490999</v>
       </c>
       <c r="C26" t="n">
-        <v>9.220966023560804</v>
+        <v>9.235668511311491</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.04474168108175647</v>
+        <v>-0.046658290820492</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.191040594356128</v>
+        <v>9.20854518814625</v>
       </c>
       <c r="C27" t="n">
-        <v>9.238840438317919</v>
+        <v>9.289542823550036</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0477998439617906</v>
+        <v>-0.08099763540378646</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.195001473813409</v>
+        <v>9.217929575411201</v>
       </c>
       <c r="C28" t="n">
-        <v>9.26568577176816</v>
+        <v>9.264878560703295</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.07068429795475062</v>
+        <v>-0.04694898529209368</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.211677445806311</v>
+        <v>9.220165123224707</v>
       </c>
       <c r="C29" t="n">
-        <v>9.250707619207317</v>
+        <v>9.235239136708765</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0390301734010059</v>
+        <v>-0.01507401348405857</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.21360747618977</v>
+        <v>9.225466433421396</v>
       </c>
       <c r="C30" t="n">
-        <v>9.228727835412419</v>
+        <v>9.227889241844341</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.01512035922264943</v>
+        <v>-0.002422808422945621</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.226658494705912</v>
+        <v>9.225568008562178</v>
       </c>
       <c r="C31" t="n">
-        <v>9.285310562090832</v>
+        <v>9.265418811315213</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.05865206738491935</v>
+        <v>-0.0398508027530351</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.31564686030007</v>
+        <v>9.239965491573891</v>
       </c>
       <c r="C32" t="n">
-        <v>9.43912579167157</v>
+        <v>9.282386095695259</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1234789313714995</v>
+        <v>-0.04242060412136794</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.334323592659073</v>
+        <v>9.246298421676016</v>
       </c>
       <c r="C33" t="n">
-        <v>9.359086445810016</v>
+        <v>9.276901610819518</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02476285315094273</v>
+        <v>-0.03060318914350191</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.340804879095238</v>
+        <v>9.24916266039811</v>
       </c>
       <c r="C34" t="n">
-        <v>9.410687154573989</v>
+        <v>9.249009038722896</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0698822754787507</v>
+        <v>0.0001536216752135999</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.342505875825752</v>
+        <v>9.40388422236901</v>
       </c>
       <c r="C35" t="n">
-        <v>9.351424531636567</v>
+        <v>9.273617949198375</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.008918655810814968</v>
+        <v>0.1302662731706352</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.37438628411727</v>
+        <v>11.37189465995256</v>
       </c>
       <c r="C36" t="n">
-        <v>9.501889940441878</v>
+        <v>11.41848970225288</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1275036563246079</v>
+        <v>-0.04659504230031075</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.379040238488376</v>
+        <v>11.37465790550879</v>
       </c>
       <c r="C37" t="n">
-        <v>9.455961267319447</v>
+        <v>11.48411744019898</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.07692102883107133</v>
+        <v>-0.1094595346901865</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.417798731665378</v>
+        <v>11.38297897419476</v>
       </c>
       <c r="C38" t="n">
-        <v>9.448008773415543</v>
+        <v>11.45359407546691</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.03021004175016451</v>
+        <v>-0.07061510127214454</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.464967792153113</v>
+        <v>11.4132273670881</v>
       </c>
       <c r="C39" t="n">
-        <v>9.501357914790445</v>
+        <v>11.42928344943057</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.03639012263733221</v>
+        <v>-0.01605608234247136</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9.472950579067549</v>
+        <v>11.4404626153131</v>
       </c>
       <c r="C40" t="n">
-        <v>9.515568015528427</v>
+        <v>11.44846095084733</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.04261743646087801</v>
+        <v>-0.007998335534226797</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.81533657945042</v>
+        <v>11.44299492691867</v>
       </c>
       <c r="C41" t="n">
-        <v>9.495380838477972</v>
+        <v>11.44995278974664</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3199557409724481</v>
+        <v>-0.006957862827972505</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.31952666163934</v>
+        <v>11.45307097968459</v>
       </c>
       <c r="C42" t="n">
-        <v>11.50530582243456</v>
+        <v>11.46005677203198</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1857791607952137</v>
+        <v>-0.006985792347395048</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.33549658994409</v>
+        <v>11.48692781600726</v>
       </c>
       <c r="C43" t="n">
-        <v>11.50828564952589</v>
+        <v>11.50518988016779</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1727890595817971</v>
+        <v>-0.01826206416052933</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.33632096751309</v>
+        <v>14.71751898941227</v>
       </c>
       <c r="C44" t="n">
-        <v>11.33903555858635</v>
+        <v>14.83815227518925</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.002714591073265993</v>
+        <v>-0.1206332857769787</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>11.3396831665968</v>
+        <v>14.73697082667261</v>
       </c>
       <c r="C45" t="n">
-        <v>11.53616420765463</v>
+        <v>14.87078469294463</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1964810410578348</v>
+        <v>-0.1338138662720194</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.34181112599256</v>
+        <v>14.75239169269637</v>
       </c>
       <c r="C46" t="n">
-        <v>11.34864228992393</v>
+        <v>14.81740435610053</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.006831163931369844</v>
+        <v>-0.06501266340415945</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>11.37069468889173</v>
+        <v>14.79325612978294</v>
       </c>
       <c r="C47" t="n">
-        <v>11.49177735306847</v>
+        <v>14.87906900680242</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1210826641767468</v>
+        <v>-0.08581287701947815</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.38918279951222</v>
+        <v>14.8158301241035</v>
       </c>
       <c r="C48" t="n">
-        <v>11.42732793718665</v>
+        <v>14.83576772551053</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.03814513767443017</v>
+        <v>-0.01993760140703138</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.39182167365608</v>
+        <v>14.82259652944141</v>
       </c>
       <c r="C49" t="n">
-        <v>11.4932879666212</v>
+        <v>14.84557494841359</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1014662929651173</v>
+        <v>-0.02297841897218333</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.41203319654305</v>
+        <v>14.83339917805259</v>
       </c>
       <c r="C50" t="n">
-        <v>11.4324077545541</v>
+        <v>14.83519917320172</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.02037455801105814</v>
+        <v>-0.001799995149127653</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.42246380485049</v>
+        <v>15.00670624417386</v>
       </c>
       <c r="C51" t="n">
-        <v>11.49561531772118</v>
+        <v>15.05049692983186</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.07315151287069277</v>
+        <v>-0.04379068565800104</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.43026266117054</v>
+        <v>15.02549221289473</v>
       </c>
       <c r="C52" t="n">
-        <v>11.49918913928101</v>
+        <v>15.17246146688307</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.06892647811046082</v>
+        <v>-0.14696925398834</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.44939750619483</v>
+        <v>15.06230384885349</v>
       </c>
       <c r="C53" t="n">
-        <v>11.51697550068513</v>
+        <v>15.10975631757977</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.06757799449030699</v>
+        <v>-0.04745246872628783</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>11.45768506221834</v>
+        <v>15.08719757537287</v>
       </c>
       <c r="C54" t="n">
-        <v>11.47154529699043</v>
+        <v>15.14926982459816</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01386023477209797</v>
+        <v>-0.06207224922529164</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>11.51645882582709</v>
+        <v>15.08969178083697</v>
       </c>
       <c r="C55" t="n">
-        <v>11.54112978323629</v>
+        <v>15.10461222582279</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02467095740919767</v>
+        <v>-0.0149204449858118</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15.80703853678752</v>
+        <v>15.10090832637237</v>
       </c>
       <c r="C56" t="n">
-        <v>15.87938682193262</v>
+        <v>15.14522128342937</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.07234828514510028</v>
+        <v>-0.04431295705699512</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.82438553964019</v>
+        <v>15.11230411077724</v>
       </c>
       <c r="C57" t="n">
-        <v>15.93645644482567</v>
+        <v>15.17153548044487</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1120709051854778</v>
+        <v>-0.05923136966762854</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15.82787809096552</v>
+        <v>15.13559822116678</v>
       </c>
       <c r="C58" t="n">
-        <v>15.89044462651318</v>
+        <v>15.14236150930028</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.0625665355476599</v>
+        <v>-0.006763288133500467</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.83228267575357</v>
+        <v>15.69209815891928</v>
       </c>
       <c r="C59" t="n">
-        <v>15.89840467762907</v>
+        <v>15.74517502763705</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.06612200187549355</v>
+        <v>-0.05307686871776696</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15.85737590701742</v>
+        <v>15.73030849830341</v>
       </c>
       <c r="C60" t="n">
-        <v>15.92136005673927</v>
+        <v>15.79832640668013</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.06398414972184163</v>
+        <v>-0.06801790837671895</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15.8843033409286</v>
+        <v>15.77093386871709</v>
       </c>
       <c r="C61" t="n">
-        <v>15.88480338728177</v>
+        <v>15.77465528040695</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0005000463531725785</v>
+        <v>-0.003721411689857845</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.90521155117843</v>
+        <v>15.77222998924559</v>
       </c>
       <c r="C62" t="n">
-        <v>15.97133264951659</v>
+        <v>15.80770195535665</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.06612109833816859</v>
+        <v>-0.03547196611106074</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>18.510300715481</v>
+        <v>15.78950708915072</v>
       </c>
       <c r="C63" t="n">
-        <v>18.69332656781609</v>
+        <v>15.79951044475957</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1830258523350849</v>
+        <v>-0.01000335560884835</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>18.52255661491024</v>
+        <v>16.90935188785546</v>
       </c>
       <c r="C64" t="n">
-        <v>18.58102317913408</v>
+        <v>17.00314889789328</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.05846656422383489</v>
+        <v>-0.09379701003782159</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>18.53372140244581</v>
+        <v>16.93038974299321</v>
       </c>
       <c r="C65" t="n">
-        <v>18.53917808378503</v>
+        <v>17.02587629951614</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.005456681339225611</v>
+        <v>-0.09548655652293547</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>18.57163102745677</v>
+        <v>16.9433983909545</v>
       </c>
       <c r="C66" t="n">
-        <v>18.68635825860969</v>
+        <v>16.99641052600563</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.1147272311529193</v>
+        <v>-0.05301213505113012</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>18.57774349221076</v>
+        <v>16.96320213207316</v>
       </c>
       <c r="C67" t="n">
-        <v>18.58461097403226</v>
+        <v>17.00338443221791</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.006867481821490884</v>
+        <v>-0.04018230014475677</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>18.59981786362032</v>
+        <v>16.9833365868308</v>
       </c>
       <c r="C68" t="n">
-        <v>18.67292516470673</v>
+        <v>17.02272214818018</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.07310730108641295</v>
+        <v>-0.03938556134938409</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>18.60086534490611</v>
+        <v>16.99427980518611</v>
       </c>
       <c r="C69" t="n">
-        <v>18.67853958158785</v>
+        <v>17.04695948661675</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.07767423668173734</v>
+        <v>-0.05267968143064294</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>18.60931082319035</v>
+        <v>17.00191791335125</v>
       </c>
       <c r="C70" t="n">
-        <v>18.61023173357037</v>
+        <v>17.0052445891938</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.0009209103800245089</v>
+        <v>-0.003326675842554749</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>18.6302251858107</v>
+        <v>17.00663096371362</v>
       </c>
       <c r="C71" t="n">
-        <v>18.63371190999747</v>
+        <v>17.04925700727377</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.003486724186767987</v>
+        <v>-0.04262604356015132</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>18.65313088505164</v>
+        <v>17.01360297155403</v>
       </c>
       <c r="C72" t="n">
-        <v>18.67160487034991</v>
+        <v>17.04993498870203</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.0184739852982716</v>
+        <v>-0.03633201714800194</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>18.65361034305376</v>
+        <v>20.78422003066665</v>
       </c>
       <c r="C73" t="n">
-        <v>18.70699577612782</v>
+        <v>20.86402852443922</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.05338543307405885</v>
+        <v>-0.07980849377257471</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>18.69443589314575</v>
+        <v>20.84660039414834</v>
       </c>
       <c r="C74" t="n">
-        <v>18.72708895169459</v>
+        <v>20.93099526994698</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.03265305854883849</v>
+        <v>-0.08439487579864036</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>18.69519782475703</v>
+        <v>20.85309346761695</v>
       </c>
       <c r="C75" t="n">
-        <v>18.87507761435482</v>
+        <v>20.88259521293087</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.1798797895977806</v>
+        <v>-0.02950174531391525</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>18.79189626795642</v>
+        <v>20.85334259178014</v>
       </c>
       <c r="C76" t="n">
-        <v>18.70857221162487</v>
+        <v>20.87209345830707</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0833240563315556</v>
+        <v>-0.01875086652693625</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>18.80190163732292</v>
+        <v>20.86472017295815</v>
       </c>
       <c r="C77" t="n">
-        <v>18.83750654870721</v>
+        <v>20.92041744156823</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.03560491138429001</v>
+        <v>-0.05569726861007496</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>18.80506091231068</v>
+        <v>20.88084421830928</v>
       </c>
       <c r="C78" t="n">
-        <v>18.88977046333838</v>
+        <v>20.92268883296295</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.08470955102769651</v>
+        <v>-0.04184461465367662</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>18.85138580061457</v>
+        <v>21.30015736353113</v>
       </c>
       <c r="C79" t="n">
-        <v>18.87928976943613</v>
+        <v>21.43157863492057</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.02790396882156898</v>
+        <v>-0.1314212713894349</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>18.86047130048305</v>
+        <v>21.31075180436156</v>
       </c>
       <c r="C80" t="n">
-        <v>18.87437887501282</v>
+        <v>21.40588398395941</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01390757452976743</v>
+        <v>-0.09513217959785081</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>18.87456097909232</v>
+        <v>21.33108312009787</v>
       </c>
       <c r="C81" t="n">
-        <v>18.65151294851683</v>
+        <v>21.45187711577928</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2230480305754909</v>
+        <v>-0.1207939956814066</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>18.89971530964214</v>
+        <v>21.33148603567075</v>
       </c>
       <c r="C82" t="n">
-        <v>18.90358394614107</v>
+        <v>21.33682114803479</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.003868636498932432</v>
+        <v>-0.005335112364043937</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>19.82655531738741</v>
+        <v>21.33453840116481</v>
       </c>
       <c r="C83" t="n">
-        <v>19.97935569371008</v>
+        <v>21.402436022071</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.15280037632267</v>
+        <v>-0.06789762090618368</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>19.84693163874337</v>
+        <v>21.33784322493278</v>
       </c>
       <c r="C84" t="n">
-        <v>19.96512205455272</v>
+        <v>21.43343056044696</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.1181904158093552</v>
+        <v>-0.09558733551417831</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>19.87994393674102</v>
+        <v>21.33981148266859</v>
       </c>
       <c r="C85" t="n">
-        <v>19.90419641013421</v>
+        <v>21.35343632121429</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02425247339319014</v>
+        <v>-0.01362483854569874</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>19.89637234563585</v>
+        <v>21.35372569842938</v>
       </c>
       <c r="C86" t="n">
-        <v>19.9836099890383</v>
+        <v>21.39797329801786</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.08723764340244955</v>
+        <v>-0.04424759958847702</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>19.90130377158861</v>
+        <v>21.35450688551133</v>
       </c>
       <c r="C87" t="n">
-        <v>20.03921932511141</v>
+        <v>21.40964512268691</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.1379155535228058</v>
+        <v>-0.05513823717558353</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>19.91054509354853</v>
+        <v>21.35657353592851</v>
       </c>
       <c r="C88" t="n">
-        <v>20.02753266550581</v>
+        <v>21.37720431350927</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.1169875719572815</v>
+        <v>-0.02063077758075593</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>19.92814129025987</v>
+        <v>21.36753403866368</v>
       </c>
       <c r="C89" t="n">
-        <v>19.93437555333698</v>
+        <v>21.438624741655</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.006234263077114832</v>
+        <v>-0.07109070299132014</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>19.92900282467331</v>
+        <v>21.3776928134693</v>
       </c>
       <c r="C90" t="n">
-        <v>20.03232498113128</v>
+        <v>21.45157416585958</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.1033221564579705</v>
+        <v>-0.0738813523902806</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>19.94745752719682</v>
+        <v>21.39392423703918</v>
       </c>
       <c r="C91" t="n">
-        <v>20.04468529936647</v>
+        <v>21.42594567590924</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.09722777216965639</v>
+        <v>-0.03202143887005349</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>19.97525716110285</v>
+        <v>21.41912674689676</v>
       </c>
       <c r="C92" t="n">
-        <v>19.99163226461112</v>
+        <v>21.4350340707131</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.01637510350827043</v>
+        <v>-0.01590732381634297</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>19.98444297299695</v>
+        <v>21.48652426245045</v>
       </c>
       <c r="C93" t="n">
-        <v>20.0320382000468</v>
+        <v>21.50734097004702</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.04759522704985031</v>
+        <v>-0.02081670759657328</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21.91319511158252</v>
+        <v>21.51719551141287</v>
       </c>
       <c r="C94" t="n">
-        <v>21.9462335532738</v>
+        <v>21.58300449408596</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.03303844169127146</v>
+        <v>-0.0658089826730901</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21.91329473970805</v>
+        <v>21.53657463728348</v>
       </c>
       <c r="C95" t="n">
-        <v>21.98484798662298</v>
+        <v>21.58791246739611</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.07155324691493448</v>
+        <v>-0.0513378301126366</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21.9658582296909</v>
+        <v>21.60032221679884</v>
       </c>
       <c r="C96" t="n">
-        <v>22.10062714653624</v>
+        <v>21.62491570434124</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.1347689168453385</v>
+        <v>-0.02459348754239343</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21.96921499457085</v>
+        <v>21.60425738485957</v>
       </c>
       <c r="C97" t="n">
-        <v>22.13201175272708</v>
+        <v>21.6069858226322</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.1627967581562295</v>
+        <v>-0.002728437772631764</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21.97870169715289</v>
+        <v>21.60953804706869</v>
       </c>
       <c r="C98" t="n">
-        <v>22.12635815357259</v>
+        <v>21.62656678668441</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1476564564196998</v>
+        <v>-0.01702873961572493</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21.98357656053275</v>
+        <v>24.96119769513005</v>
       </c>
       <c r="C99" t="n">
-        <v>21.99120993874314</v>
+        <v>25.05168655814937</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.007633378210393005</v>
+        <v>-0.09048886301931347</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21.98383336736382</v>
+        <v>24.96548662302818</v>
       </c>
       <c r="C100" t="n">
-        <v>22.07349506987808</v>
+        <v>24.96998059399046</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.08966170251425964</v>
+        <v>-0.0044939709622831</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>22.00482319146069</v>
+        <v>24.98443136101949</v>
       </c>
       <c r="C101" t="n">
-        <v>22.06009211666225</v>
+        <v>25.09833051386065</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.05526892520156323</v>
+        <v>-0.113899152841153</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>22.02072896881645</v>
+        <v>24.98576596773191</v>
       </c>
       <c r="C102" t="n">
-        <v>22.0621571617831</v>
+        <v>25.06031928186377</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.04142819296664868</v>
+        <v>-0.07455331413186528</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>22.05772119377167</v>
+        <v>24.98618113906883</v>
       </c>
       <c r="C103" t="n">
-        <v>22.08962389640771</v>
+        <v>25.00438467822621</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.03190270263604589</v>
+        <v>-0.01820353915737982</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>22.34678461552659</v>
+        <v>24.99534505247672</v>
       </c>
       <c r="C104" t="n">
-        <v>22.10701871268807</v>
+        <v>25.07138959491463</v>
       </c>
       <c r="D104" t="n">
-        <v>0.2397659028385206</v>
+        <v>-0.0760445424379057</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>23.38389147068549</v>
+        <v>25.0080638007164</v>
       </c>
       <c r="C105" t="n">
-        <v>23.46291628362706</v>
+        <v>25.08811578187337</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.07902481294156161</v>
+        <v>-0.08005198115696288</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>23.38686838095439</v>
+        <v>25.02477168113873</v>
       </c>
       <c r="C106" t="n">
-        <v>23.41814008466286</v>
+        <v>25.08775415589648</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.03127170370847665</v>
+        <v>-0.06298247475774232</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>23.39276103884421</v>
+        <v>25.04247702984593</v>
       </c>
       <c r="C107" t="n">
-        <v>23.43919276404222</v>
+        <v>25.04290663508473</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.04643172519801197</v>
+        <v>-0.0004296052387928739</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>23.42473228142661</v>
+        <v>25.04804399079358</v>
       </c>
       <c r="C108" t="n">
-        <v>23.4520579495655</v>
+        <v>25.08778948748358</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.02732566813889648</v>
+        <v>-0.03974549668999927</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>23.44214979761521</v>
+        <v>25.04871619776811</v>
       </c>
       <c r="C109" t="n">
-        <v>23.46567102208894</v>
+        <v>25.08733160161262</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.02352122447373262</v>
+        <v>-0.0386154038445099</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>23.45031860002813</v>
+        <v>25.05587295028104</v>
       </c>
       <c r="C110" t="n">
-        <v>23.45774684004802</v>
+        <v>25.08059672369337</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.007428240019894616</v>
+        <v>-0.02472377341232956</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>23.45990619913073</v>
+        <v>25.05955108053802</v>
       </c>
       <c r="C111" t="n">
-        <v>23.47406368093516</v>
+        <v>25.09843754582709</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.01415748180442478</v>
+        <v>-0.03888646528907103</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>23.55933458481937</v>
+        <v>25.24741777088021</v>
       </c>
       <c r="C112" t="n">
-        <v>23.55971264036019</v>
+        <v>25.09764176924973</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.0003780555408141595</v>
+        <v>0.1497760016304781</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25.93268770784766</v>
+        <v>25.38148241481064</v>
       </c>
       <c r="C113" t="n">
-        <v>26.12902217818332</v>
+        <v>25.06507760182009</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1963344703356569</v>
+        <v>0.3164048129905552</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>25.96141952420863</v>
+        <v>25.71544756352753</v>
       </c>
       <c r="C114" t="n">
-        <v>26.14931255437189</v>
+        <v>25.72363416791612</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1878930301632629</v>
+        <v>-0.008186604388590979</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>25.96686359863252</v>
+        <v>25.73468487971924</v>
       </c>
       <c r="C115" t="n">
-        <v>26.08688576134593</v>
+        <v>25.75000018920644</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.1200221627134148</v>
+        <v>-0.01531530948720317</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>25.98348117002098</v>
+        <v>25.7383009293467</v>
       </c>
       <c r="C116" t="n">
-        <v>26.04677794659057</v>
+        <v>25.81095842046115</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.06329677656958665</v>
+        <v>-0.07265749111445174</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>26.00628508247513</v>
+        <v>25.74506223561505</v>
       </c>
       <c r="C117" t="n">
-        <v>26.04721382318321</v>
+        <v>25.85635482782805</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.04092874070807895</v>
+        <v>-0.1112925922129939</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>26.02937125402859</v>
+        <v>25.7807743423886</v>
       </c>
       <c r="C118" t="n">
-        <v>26.09199599181064</v>
+        <v>25.79653056113414</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.06262473778204836</v>
+        <v>-0.015756218745544</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>26.04997443736439</v>
+        <v>25.79732536042879</v>
       </c>
       <c r="C119" t="n">
-        <v>26.09843789286565</v>
+        <v>25.81733648827469</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.04846345550125619</v>
+        <v>-0.02001112784590475</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>26.10829747842515</v>
+        <v>25.80136852157638</v>
       </c>
       <c r="C120" t="n">
-        <v>26.11960171107583</v>
+        <v>25.83456563144891</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.01130423265067293</v>
+        <v>-0.03319710987253544</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>30.06541892663383</v>
+        <v>25.83727032689857</v>
       </c>
       <c r="C121" t="n">
-        <v>30.16588529515293</v>
+        <v>25.86124158149996</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.1004663685191005</v>
+        <v>-0.02397125460138838</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>30.06708286203965</v>
+        <v>25.83810800908597</v>
       </c>
       <c r="C122" t="n">
-        <v>30.25502889271149</v>
+        <v>25.85960987190663</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.187946030671835</v>
+        <v>-0.02150186282066002</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>30.06934164819563</v>
+        <v>25.83838874041065</v>
       </c>
       <c r="C123" t="n">
-        <v>30.22221502056076</v>
+        <v>25.84558078127266</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.1528733723651321</v>
+        <v>-0.007192040862008753</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>30.0956509518913</v>
+        <v>25.84628319870807</v>
       </c>
       <c r="C124" t="n">
-        <v>30.10349836454895</v>
+        <v>25.85015902526764</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.007847412657657316</v>
+        <v>-0.003875826559568196</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>30.10927761202873</v>
+        <v>26.55481860038866</v>
       </c>
       <c r="C125" t="n">
-        <v>30.16774110849743</v>
+        <v>26.69215362920436</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.05846349646869697</v>
+        <v>-0.137335028815702</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>30.12977670467689</v>
+        <v>26.5856710804925</v>
       </c>
       <c r="C126" t="n">
-        <v>30.15665305856443</v>
+        <v>26.69204871606089</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.02687635388754472</v>
+        <v>-0.1063776355683927</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>30.17503835957627</v>
+        <v>26.62430429673192</v>
       </c>
       <c r="C127" t="n">
-        <v>30.21524659548068</v>
+        <v>26.65531327046559</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.04020823590440159</v>
+        <v>-0.03100897373366962</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>30.23894181814604</v>
+        <v>26.62811698424571</v>
       </c>
       <c r="C128" t="n">
-        <v>30.28248156405379</v>
+        <v>26.66514327890558</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.04353974590775422</v>
+        <v>-0.03702629465986718</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>30.24424641111986</v>
+        <v>26.64555654935235</v>
       </c>
       <c r="C129" t="n">
-        <v>30.26444111059372</v>
+        <v>26.71370909048017</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.02019469947385844</v>
+        <v>-0.06815254112781588</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>30.25986585338269</v>
+        <v>26.64928699720632</v>
       </c>
       <c r="C130" t="n">
-        <v>30.26438872088077</v>
+        <v>26.68216985496396</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.004522867498081951</v>
+        <v>-0.03288285775763811</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>30.41160773376884</v>
+        <v>26.71695633728646</v>
       </c>
       <c r="C131" t="n">
-        <v>30.11863489657929</v>
+        <v>26.72229963491957</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2929728371895415</v>
+        <v>-0.005343297633110922</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>30.58487499783729</v>
+        <v>31.24328688075984</v>
       </c>
       <c r="C132" t="n">
-        <v>30.77185313025031</v>
+        <v>31.32910618632672</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1869781324130173</v>
+        <v>-0.08581930556688633</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>30.609890079756</v>
+        <v>31.28360062910317</v>
       </c>
       <c r="C133" t="n">
-        <v>30.74446339603207</v>
+        <v>31.30381953947423</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.1345733162760681</v>
+        <v>-0.02021891037106016</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>30.62537978023172</v>
+        <v>31.28365183642197</v>
       </c>
       <c r="C134" t="n">
-        <v>30.64288447842455</v>
+        <v>31.35845400315339</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.01750469819283396</v>
+        <v>-0.07480216673142337</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>30.64281614050148</v>
+        <v>31.2862413351841</v>
       </c>
       <c r="C135" t="n">
-        <v>30.70256874846315</v>
+        <v>31.33009996476465</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.05975260796167348</v>
+        <v>-0.04385862958054432</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>30.65283472637251</v>
+        <v>31.30929917418392</v>
       </c>
       <c r="C136" t="n">
-        <v>30.74155922131616</v>
+        <v>31.36656105867307</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.08872449494364076</v>
+        <v>-0.05726188448915082</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>30.65887688189799</v>
+        <v>31.32421208956494</v>
       </c>
       <c r="C137" t="n">
-        <v>30.74476959298973</v>
+        <v>31.37174938992838</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.08589271109173424</v>
+        <v>-0.04753730036343384</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>30.67823460220853</v>
+        <v>31.33368957742423</v>
       </c>
       <c r="C138" t="n">
-        <v>30.70321025845988</v>
+        <v>31.38401561198589</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.02497565625135323</v>
+        <v>-0.0503260345616674</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>30.70309160141132</v>
+        <v>31.3358124668387</v>
       </c>
       <c r="C139" t="n">
-        <v>30.77398165620434</v>
+        <v>31.34105904538998</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.07089005479301846</v>
+        <v>-0.005246578551286518</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>30.7366062607968</v>
+        <v>31.3689894557433</v>
       </c>
       <c r="C140" t="n">
-        <v>30.75548817176021</v>
+        <v>31.37684654400841</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.01888191096341174</v>
+        <v>-0.007857088265108558</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>30.74454387215722</v>
+        <v>31.73580809556347</v>
       </c>
       <c r="C141" t="n">
-        <v>30.65168902746243</v>
+        <v>31.81459924320939</v>
       </c>
       <c r="D141" t="n">
-        <v>0.09285484469479499</v>
+        <v>-0.07879114764592288</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>31.04619816882305</v>
+        <v>31.74836773018587</v>
       </c>
       <c r="C142" t="n">
-        <v>31.11540513804465</v>
+        <v>31.7719878696835</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.06920696922160374</v>
+        <v>-0.02362013949762698</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>31.04934035917445</v>
+        <v>31.74913668166532</v>
       </c>
       <c r="C143" t="n">
-        <v>31.23811696776309</v>
+        <v>31.86129956022092</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.1887766085886362</v>
+        <v>-0.1121628785556013</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>31.07173292167285</v>
+        <v>31.75180270738737</v>
       </c>
       <c r="C144" t="n">
-        <v>31.21027371374468</v>
+        <v>31.84295406367321</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.1385407920718329</v>
+        <v>-0.09115135628583815</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>31.10631175871041</v>
+        <v>31.77112303081546</v>
       </c>
       <c r="C145" t="n">
-        <v>31.25930899243722</v>
+        <v>31.79769376766163</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.1529972337268113</v>
+        <v>-0.02657073684617473</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>31.13295943019498</v>
+        <v>31.78205806050462</v>
       </c>
       <c r="C146" t="n">
-        <v>31.23874968003932</v>
+        <v>31.83068343536076</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.1057902498443397</v>
+        <v>-0.04862537485614737</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>31.13352970429138</v>
+        <v>31.78720605199928</v>
       </c>
       <c r="C147" t="n">
-        <v>31.26720304245413</v>
+        <v>31.86026441450207</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.1336733381627475</v>
+        <v>-0.0730583625027883</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>31.13550043649331</v>
+        <v>31.7883100958229</v>
       </c>
       <c r="C148" t="n">
-        <v>31.14188561301669</v>
+        <v>31.80473598900064</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.00638517652338777</v>
+        <v>-0.01642589317774679</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>31.15895974724929</v>
+        <v>31.79002600288344</v>
       </c>
       <c r="C149" t="n">
-        <v>31.22698063392677</v>
+        <v>31.81944926182274</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.06802088667747341</v>
+        <v>-0.0294232589392962</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>31.16741441404197</v>
+        <v>31.79233072999125</v>
       </c>
       <c r="C150" t="n">
-        <v>31.26764218729424</v>
+        <v>31.8842094883902</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.1002277732522678</v>
+        <v>-0.09187875839895909</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>31.19996742139898</v>
+        <v>31.81700378429631</v>
       </c>
       <c r="C151" t="n">
-        <v>31.24349453831471</v>
+        <v>31.85387103207196</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.04352711691572253</v>
+        <v>-0.03686724777565331</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>31.24290897192834</v>
+        <v>31.8197008692093</v>
       </c>
       <c r="C152" t="n">
-        <v>31.26813387745458</v>
+        <v>31.86110995242866</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.0252249055262368</v>
+        <v>-0.04140908321936365</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>31.28794347763236</v>
+        <v>31.84696709581447</v>
       </c>
       <c r="C153" t="n">
-        <v>31.19898778482773</v>
+        <v>31.86764867039418</v>
       </c>
       <c r="D153" t="n">
-        <v>0.08895569280463533</v>
+        <v>-0.02068157457971154</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>31.75213419827733</v>
+        <v>32.82177006784866</v>
       </c>
       <c r="C154" t="n">
-        <v>31.81793743369465</v>
+        <v>32.83122138172057</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.06580323541732014</v>
+        <v>-0.009451313871913669</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>31.75297028337035</v>
+        <v>32.83302442758634</v>
       </c>
       <c r="C155" t="n">
-        <v>31.78964910395547</v>
+        <v>32.97494645612631</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.03667882058512006</v>
+        <v>-0.1419220285399732</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>31.75981289855233</v>
+        <v>32.85097864471758</v>
       </c>
       <c r="C156" t="n">
-        <v>31.82782102875749</v>
+        <v>32.8963045273072</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.06800813020515406</v>
+        <v>-0.04532588258962278</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>31.77343684232402</v>
+        <v>32.85728628015816</v>
       </c>
       <c r="C157" t="n">
-        <v>31.92256491107787</v>
+        <v>32.98613855347124</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.1491280687538534</v>
+        <v>-0.128852273313079</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>31.79298813625475</v>
+        <v>32.87573459667925</v>
       </c>
       <c r="C158" t="n">
-        <v>31.81964156926032</v>
+        <v>32.92011642796068</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.026653433005567</v>
+        <v>-0.04438183128142725</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>31.79551890516662</v>
+        <v>32.87677557920772</v>
       </c>
       <c r="C159" t="n">
-        <v>31.94620367249995</v>
+        <v>32.91640844339841</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.1506847673333382</v>
+        <v>-0.03963286419068623</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>31.8239806685097</v>
+        <v>32.89132330333944</v>
       </c>
       <c r="C160" t="n">
-        <v>31.83493767950396</v>
+        <v>32.96941424804047</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.01095701099425739</v>
+        <v>-0.07809094470102451</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>31.8256060393591</v>
+        <v>32.91401323372862</v>
       </c>
       <c r="C161" t="n">
-        <v>31.91027700884123</v>
+        <v>32.9515184294259</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.08467096948212927</v>
+        <v>-0.03750519569727828</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>31.82723396751002</v>
+        <v>32.93053329523873</v>
       </c>
       <c r="C162" t="n">
-        <v>31.9096449731923</v>
+        <v>32.93859284782435</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.08241100568228177</v>
+        <v>-0.008059552585613972</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>31.8843411876155</v>
+        <v>32.93124410531302</v>
       </c>
       <c r="C163" t="n">
-        <v>31.89882306460212</v>
+        <v>32.97397485702093</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.01448187698662196</v>
+        <v>-0.04273075170790719</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>31.89236410243182</v>
+        <v>32.93306622569769</v>
       </c>
       <c r="C164" t="n">
-        <v>31.94141375583651</v>
+        <v>32.93663466694663</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.04904965340469758</v>
+        <v>-0.003568441248944509</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>31.91747089321979</v>
+        <v>32.96164055324459</v>
       </c>
       <c r="C165" t="n">
-        <v>31.93820860579624</v>
+        <v>32.97255659159138</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.02073771257645873</v>
+        <v>-0.01091603834679944</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>39.35752899239014</v>
+        <v>33.76136242757108</v>
       </c>
       <c r="C166" t="n">
-        <v>39.39318565434824</v>
+        <v>33.90503123698481</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.03565666195809314</v>
+        <v>-0.1436688094137324</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>39.36360729785358</v>
+        <v>33.81893421692586</v>
       </c>
       <c r="C167" t="n">
-        <v>39.54833466001067</v>
+        <v>33.88086229090557</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.1847273621570906</v>
+        <v>-0.06192807397970768</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>39.4027527243959</v>
+        <v>33.85186916586876</v>
       </c>
       <c r="C168" t="n">
-        <v>39.44882676573788</v>
+        <v>33.91274927113448</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.04607404134197424</v>
+        <v>-0.06088010526572418</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>39.41836605749152</v>
+        <v>33.85998950212554</v>
       </c>
       <c r="C169" t="n">
-        <v>39.49843408316028</v>
+        <v>33.86732522970784</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.08006802566875848</v>
+        <v>-0.007335727582301388</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>39.43079820804753</v>
+        <v>33.8650539660637</v>
       </c>
       <c r="C170" t="n">
-        <v>39.560119900237</v>
+        <v>33.91557587983531</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.129321692189464</v>
+        <v>-0.05052191377161108</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>39.45650059224964</v>
+        <v>33.86796650740283</v>
       </c>
       <c r="C171" t="n">
-        <v>39.53986469876573</v>
+        <v>33.88492939204077</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.08336410651608617</v>
+        <v>-0.01696288463794104</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>41.52421827490963</v>
+        <v>33.87405774304175</v>
       </c>
       <c r="C172" t="n">
-        <v>41.66629872966622</v>
+        <v>33.88057451686367</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.142080454756595</v>
+        <v>-0.006516773821928723</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>41.53535507289811</v>
+        <v>33.88069249572048</v>
       </c>
       <c r="C173" t="n">
-        <v>41.65224944071928</v>
+        <v>33.89466793121087</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.1168943678211676</v>
+        <v>-0.01397543549038716</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>41.53756502264338</v>
+        <v>33.90567181198399</v>
       </c>
       <c r="C174" t="n">
-        <v>41.71276488781825</v>
+        <v>33.92218014340535</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1751998651748607</v>
+        <v>-0.01650833142136321</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>41.54960682874719</v>
+        <v>35.31491317761116</v>
       </c>
       <c r="C175" t="n">
-        <v>41.59841206521432</v>
+        <v>35.45500178110283</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.04880523646713186</v>
+        <v>-0.1400886034916695</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>41.56407737285335</v>
+        <v>35.33772968032522</v>
       </c>
       <c r="C176" t="n">
-        <v>41.73909563617088</v>
+        <v>35.43643637082014</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1750182633175328</v>
+        <v>-0.09870669049491454</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>41.59923675095541</v>
+        <v>35.33906329475374</v>
       </c>
       <c r="C177" t="n">
-        <v>41.72282449923215</v>
+        <v>35.3858431484989</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.1235877482767407</v>
+        <v>-0.04677985374515714</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>41.6025032595709</v>
+        <v>35.35992212849608</v>
       </c>
       <c r="C178" t="n">
-        <v>41.71394517100835</v>
+        <v>35.39448986939144</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1114419114374527</v>
+        <v>-0.03456774089536196</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>41.60742515684036</v>
+        <v>35.37207359472882</v>
       </c>
       <c r="C179" t="n">
-        <v>41.63746227331993</v>
+        <v>35.4236456648422</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.0300371164795763</v>
+        <v>-0.05157207011338016</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>41.62130548321998</v>
+        <v>35.40888279663994</v>
       </c>
       <c r="C180" t="n">
-        <v>41.70524509691955</v>
+        <v>35.46376035550427</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.08393961369957736</v>
+        <v>-0.05487755886432666</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>41.63579480038287</v>
+        <v>35.41147815035057</v>
       </c>
       <c r="C181" t="n">
-        <v>41.66664730667029</v>
+        <v>35.42186907882029</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.03085250628742386</v>
+        <v>-0.01039092846971812</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>41.64513336437029</v>
+        <v>38.87787008332182</v>
       </c>
       <c r="C182" t="n">
-        <v>41.65905656388624</v>
+        <v>38.96989397849438</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.01392319951595056</v>
+        <v>-0.09202389517255227</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>41.64907864557004</v>
+        <v>38.88832562868661</v>
       </c>
       <c r="C183" t="n">
-        <v>41.6695161759308</v>
+        <v>38.99465930232304</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.02043753036075913</v>
+        <v>-0.1063336736364278</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>41.65982791804169</v>
+        <v>38.88909874030839</v>
       </c>
       <c r="C184" t="n">
-        <v>41.67135673214649</v>
+        <v>38.93294807924349</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.01152881410479267</v>
+        <v>-0.04384933893509668</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>41.71821640125301</v>
+        <v>38.8905414312657</v>
       </c>
       <c r="C185" t="n">
-        <v>41.72876095073842</v>
+        <v>38.95667409639077</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.0105445494854095</v>
+        <v>-0.06613266512506755</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>42.00141045971635</v>
+        <v>38.89316325359923</v>
       </c>
       <c r="C186" t="n">
-        <v>42.15653415755544</v>
+        <v>38.97145444500323</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.1551236978390946</v>
+        <v>-0.07829119140400564</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>42.03632064227376</v>
+        <v>38.89384908726391</v>
       </c>
       <c r="C187" t="n">
-        <v>42.05004609009522</v>
+        <v>38.92908274977384</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.01372544782146434</v>
+        <v>-0.03523366250993121</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>42.09231052723325</v>
+        <v>38.90497244867664</v>
       </c>
       <c r="C188" t="n">
-        <v>42.21423664295484</v>
+        <v>38.90645610023871</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.1219261157215925</v>
+        <v>-0.001483651562068644</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>42.11827254284083</v>
+        <v>38.91282547170728</v>
       </c>
       <c r="C189" t="n">
-        <v>42.15025618706392</v>
+        <v>38.98448301952247</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.03198364422308231</v>
+        <v>-0.0716575478151924</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>42.17644376277344</v>
+        <v>38.92632501388512</v>
       </c>
       <c r="C190" t="n">
-        <v>42.20884140808653</v>
+        <v>39.01910144144104</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.03239764531308964</v>
+        <v>-0.09277642755591842</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>44.20257448496049</v>
+        <v>38.92716948929949</v>
       </c>
       <c r="C191" t="n">
-        <v>44.2342897051732</v>
+        <v>38.96014109045299</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.03171522021271755</v>
+        <v>-0.0329716011534984</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>44.21301086344111</v>
+        <v>38.94369637315878</v>
       </c>
       <c r="C192" t="n">
-        <v>44.23309980955878</v>
+        <v>38.98608025634865</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.02008894611766721</v>
+        <v>-0.04238388318987063</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>44.21558442259051</v>
+        <v>38.95247985587427</v>
       </c>
       <c r="C193" t="n">
-        <v>44.38091629718681</v>
+        <v>38.95700565289467</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.1653318745962977</v>
+        <v>-0.004525797020399125</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>44.21923755759848</v>
+        <v>38.95335725491204</v>
       </c>
       <c r="C194" t="n">
-        <v>44.33112961773641</v>
+        <v>38.95845833011909</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.1118920601379259</v>
+        <v>-0.005101075207043948</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>44.2256412948549</v>
+        <v>38.96150948082398</v>
       </c>
       <c r="C195" t="n">
-        <v>44.28724360413248</v>
+        <v>38.96780260995119</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.06160230927758903</v>
+        <v>-0.006293129127207919</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>44.22860780970203</v>
+        <v>38.9751044891437</v>
       </c>
       <c r="C196" t="n">
-        <v>44.36192049816378</v>
+        <v>39.00910397585878</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.1333126884617499</v>
+        <v>-0.03399948671507502</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>44.26825129978931</v>
+        <v>44.59948247572704</v>
       </c>
       <c r="C197" t="n">
-        <v>44.29421701013084</v>
+        <v>44.67299058767922</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.02596571034153783</v>
+        <v>-0.07350811195217943</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>44.28263994651324</v>
+        <v>44.62494125468076</v>
       </c>
       <c r="C198" t="n">
-        <v>44.34796311013705</v>
+        <v>44.65162753965846</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.06532316362381607</v>
+        <v>-0.02668628497769987</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>44.33364834075796</v>
+        <v>44.6262835727957</v>
       </c>
       <c r="C199" t="n">
-        <v>44.35040627871851</v>
+        <v>44.74917321247867</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.01675793796054847</v>
+        <v>-0.1228896396829668</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>44.33753743549347</v>
+        <v>44.62866089276108</v>
       </c>
       <c r="C200" t="n">
-        <v>44.38883831141121</v>
+        <v>44.73469735014449</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.05130087591773247</v>
+        <v>-0.1060364573834036</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>44.34036512301636</v>
+        <v>44.67073129316121</v>
       </c>
       <c r="C201" t="n">
-        <v>44.3420120278797</v>
+        <v>44.71193032295415</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.001646904863335408</v>
+        <v>-0.0411990297929421</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>44.34614185260281</v>
+        <v>44.67646721718721</v>
       </c>
       <c r="C202" t="n">
-        <v>44.38229289398412</v>
+        <v>44.76361266598164</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.03615104138130931</v>
+        <v>-0.08714544879443054</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>44.34653396370762</v>
+        <v>44.68613506536897</v>
       </c>
       <c r="C203" t="n">
-        <v>44.38481211588782</v>
+        <v>44.7446934425694</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.03827815218019737</v>
+        <v>-0.058558377200427</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>44.50087039845919</v>
+        <v>44.68661802200463</v>
       </c>
       <c r="C204" t="n">
-        <v>44.29622929377147</v>
+        <v>44.74710970721015</v>
       </c>
       <c r="D204" t="n">
-        <v>0.2046411046877168</v>
+        <v>-0.06049168520551973</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>44.65965925605828</v>
+        <v>44.69071951250884</v>
       </c>
       <c r="C205" t="n">
-        <v>44.37147811900326</v>
+        <v>44.70732920788606</v>
       </c>
       <c r="D205" t="n">
-        <v>0.2881811370550196</v>
+        <v>-0.01660969537722679</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>47.23108709205341</v>
+        <v>44.69388773226023</v>
       </c>
       <c r="C206" t="n">
-        <v>47.31762880831301</v>
+        <v>44.74910837018743</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.08654171625960316</v>
+        <v>-0.05522063792719933</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>47.239639749571</v>
+        <v>44.69543109578655</v>
       </c>
       <c r="C207" t="n">
-        <v>47.27412193533015</v>
+        <v>44.7035005609146</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.03448218575914552</v>
+        <v>-0.0080694651280524</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>47.31897439232657</v>
+        <v>44.71701372815453</v>
       </c>
       <c r="C208" t="n">
-        <v>47.4249961988901</v>
+        <v>44.72077453118868</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.1060218065635326</v>
+        <v>-0.003760803034147386</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>47.32478347422446</v>
+        <v>44.71971500957905</v>
       </c>
       <c r="C209" t="n">
-        <v>47.3380953575281</v>
+        <v>44.73985958764901</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.01331188330364341</v>
+        <v>-0.02014457806996006</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>47.34921418224846</v>
+        <v>45.72466760244931</v>
       </c>
       <c r="C210" t="n">
-        <v>47.40374891446461</v>
+        <v>45.72900232950304</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.05453473221615468</v>
+        <v>-0.004334727053731058</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>47.36891282553423</v>
+        <v>45.77237404158237</v>
       </c>
       <c r="C211" t="n">
-        <v>47.40911726121172</v>
+        <v>45.85058543415698</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.04020443567748799</v>
+        <v>-0.07821139257460175</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>47.36961122547613</v>
+        <v>45.80066545101779</v>
       </c>
       <c r="C212" t="n">
-        <v>47.40732978494923</v>
+        <v>45.86770282598168</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.03771855947310598</v>
+        <v>-0.0670373749638884</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>47.65534473605292</v>
+        <v>45.80609860645971</v>
       </c>
       <c r="C213" t="n">
-        <v>47.79594046322378</v>
+        <v>45.81888072782039</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.1405957271708616</v>
+        <v>-0.01278212136068646</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>47.68821388528883</v>
+        <v>45.83959750701699</v>
       </c>
       <c r="C214" t="n">
-        <v>47.75124718649613</v>
+        <v>45.86436915199305</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.06303330120729811</v>
+        <v>-0.0247716449760631</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>47.69175916002754</v>
+        <v>59.71815932510049</v>
       </c>
       <c r="C215" t="n">
-        <v>47.69749939844291</v>
+        <v>59.79402755829411</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.005740238415370413</v>
+        <v>-0.07586823319362423</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>47.71089189484404</v>
+        <v>59.72732848686214</v>
       </c>
       <c r="C216" t="n">
-        <v>47.74725854940275</v>
+        <v>59.76953301199814</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.03636665455871224</v>
+        <v>-0.04220452513600037</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>47.7252993666769</v>
+        <v>59.73215910574445</v>
       </c>
       <c r="C217" t="n">
-        <v>47.76961077812939</v>
+        <v>59.77553357727102</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.04431141145249029</v>
+        <v>-0.04337447152656893</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>47.73954237071059</v>
+        <v>59.75624638292181</v>
       </c>
       <c r="C218" t="n">
-        <v>47.838804696839</v>
+        <v>59.77646426619497</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.0992623261284109</v>
+        <v>-0.02021788327316187</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>47.76141228746223</v>
+        <v>59.76186362283078</v>
       </c>
       <c r="C219" t="n">
-        <v>47.83133042145155</v>
+        <v>59.77311287217638</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.06991813398931868</v>
+        <v>-0.01124924934559601</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>47.76255411725612</v>
+        <v>59.76692481217945</v>
       </c>
       <c r="C220" t="n">
-        <v>47.77161958787642</v>
+        <v>59.77876652198218</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.00906547062029972</v>
+        <v>-0.01184170980273791</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>47.81648626546999</v>
+        <v>59.77140832977587</v>
       </c>
       <c r="C221" t="n">
-        <v>47.81732321427444</v>
+        <v>59.84231423700264</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.0008369488044479567</v>
+        <v>-0.07090590722677348</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>48.3186886556791</v>
+        <v>59.7792356263523</v>
       </c>
       <c r="C222" t="n">
-        <v>48.51939632249942</v>
+        <v>59.80777665974799</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.2007076668203212</v>
+        <v>-0.02854103339569036</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>48.37145730867805</v>
+        <v>59.79953500767889</v>
       </c>
       <c r="C223" t="n">
-        <v>48.50745764371754</v>
+        <v>59.84924721910144</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.1360003350394834</v>
+        <v>-0.04971221142255189</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>48.37337812053914</v>
+        <v>59.8014138503252</v>
       </c>
       <c r="C224" t="n">
-        <v>48.43154701476207</v>
+        <v>59.80288291448805</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.05816889422293059</v>
+        <v>-0.00146906416285475</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>48.38258412338656</v>
+        <v>59.81130430988183</v>
       </c>
       <c r="C225" t="n">
-        <v>48.42198612568573</v>
+        <v>59.83063770554244</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.03940200229917679</v>
+        <v>-0.01933339566060255</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>48.39032645068227</v>
+        <v>59.82485277382118</v>
       </c>
       <c r="C226" t="n">
-        <v>48.43255765301414</v>
+        <v>59.85215182330064</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.04223120233186251</v>
+        <v>-0.02729904947945272</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>48.39365472359789</v>
+        <v>66.96392400775973</v>
       </c>
       <c r="C227" t="n">
-        <v>48.54377697078382</v>
+        <v>67.02787022876031</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.1501222471859336</v>
+        <v>-0.06394622100057745</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>48.40051031225377</v>
+        <v>66.97031549432464</v>
       </c>
       <c r="C228" t="n">
-        <v>48.51701660868906</v>
+        <v>67.08273566089922</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.1165062964352899</v>
+        <v>-0.1124201665745801</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>48.40297737805432</v>
+        <v>66.98020308469668</v>
       </c>
       <c r="C229" t="n">
-        <v>48.49472936742691</v>
+        <v>66.98612386122554</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.09175198937258955</v>
+        <v>-0.005920776528853366</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>48.40452687430821</v>
+        <v>67.02112087972085</v>
       </c>
       <c r="C230" t="n">
-        <v>48.46852620214652</v>
+        <v>67.13031557491141</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.06399932783831019</v>
+        <v>-0.1091946951905527</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>48.42704429121621</v>
+        <v>67.02984236593322</v>
       </c>
       <c r="C231" t="n">
-        <v>48.5302537439561</v>
+        <v>67.10131890245088</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.1032094527398826</v>
+        <v>-0.07147653651766461</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>48.43032668833325</v>
+        <v>67.03414541096291</v>
       </c>
       <c r="C232" t="n">
-        <v>48.48740362055969</v>
+        <v>67.05759857898748</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.05707693222643684</v>
+        <v>-0.02345316802457376</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>48.43199614677385</v>
+        <v>67.03646512019533</v>
       </c>
       <c r="C233" t="n">
-        <v>48.55341566714559</v>
+        <v>67.1165248328909</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.1214195203717452</v>
+        <v>-0.08005971269557222</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>48.46267150044297</v>
+        <v>67.55157432665797</v>
       </c>
       <c r="C234" t="n">
-        <v>48.47567362770438</v>
+        <v>67.64774467681147</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.0130021272614087</v>
+        <v>-0.09617035015349984</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>48.47192789055099</v>
+        <v>67.6170407865221</v>
       </c>
       <c r="C235" t="n">
-        <v>48.52279774946324</v>
+        <v>67.64748235585508</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.05086985891224316</v>
+        <v>-0.0304415693329787</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>48.48237605757155</v>
+        <v>67.62005589117594</v>
       </c>
       <c r="C236" t="n">
-        <v>48.55043692550544</v>
+        <v>67.67959241277893</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.06806086793389454</v>
+        <v>-0.05953652160299328</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>48.49315211769591</v>
+        <v>67.62619587306648</v>
       </c>
       <c r="C237" t="n">
-        <v>48.55362120577539</v>
+        <v>67.64136305321846</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.06046908807948626</v>
+        <v>-0.01516718015197682</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>48.50592519715829</v>
+        <v>67.63379125704263</v>
       </c>
       <c r="C238" t="n">
-        <v>48.5524348254993</v>
+        <v>67.66797949906346</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.04650962834101335</v>
+        <v>-0.03418824202083215</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>48.50922270795675</v>
+        <v>67.63448670982559</v>
       </c>
       <c r="C239" t="n">
-        <v>48.57487146223807</v>
+        <v>67.63953180536861</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.06564875428132666</v>
+        <v>-0.005045095543010802</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>48.52412189642261</v>
+        <v>67.65275630489506</v>
       </c>
       <c r="C240" t="n">
-        <v>48.57681046090236</v>
+        <v>67.66432328248158</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.05268856447974457</v>
+        <v>-0.01156697758651148</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>48.59723674149453</v>
+        <v>67.6788152851519</v>
       </c>
       <c r="C241" t="n">
-        <v>48.57213377608457</v>
+        <v>67.68742494002596</v>
       </c>
       <c r="D241" t="n">
-        <v>0.02510296540995682</v>
+        <v>-0.008609654874064177</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>48.59806776661028</v>
+        <v>71.12813959199873</v>
       </c>
       <c r="C242" t="n">
-        <v>48.57517131753571</v>
+        <v>71.14524364137733</v>
       </c>
       <c r="D242" t="n">
-        <v>0.02289644907457244</v>
+        <v>-0.01710404937860233</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>50.53107900430813</v>
+        <v>71.15246866200384</v>
       </c>
       <c r="C243" t="n">
-        <v>50.53262076440381</v>
+        <v>71.25365939760763</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.001541760095676636</v>
+        <v>-0.1011907356037938</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>50.53725403820821</v>
+        <v>71.16369391948655</v>
       </c>
       <c r="C244" t="n">
-        <v>50.67322603521865</v>
+        <v>71.27734074489987</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.1359719970104436</v>
+        <v>-0.1136468254133263</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>50.54061005065223</v>
+        <v>71.16492256339333</v>
       </c>
       <c r="C245" t="n">
-        <v>50.69041393075211</v>
+        <v>71.23937700286019</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.1498038800998742</v>
+        <v>-0.07445443946686225</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>50.56220881872866</v>
+        <v>71.18229273445434</v>
       </c>
       <c r="C246" t="n">
-        <v>50.63219355905678</v>
+        <v>71.24324771573201</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.06998474032811686</v>
+        <v>-0.06095498127767485</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>50.59025828476134</v>
+        <v>71.18251231560818</v>
       </c>
       <c r="C247" t="n">
-        <v>50.61424716150709</v>
+        <v>71.23314090794331</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.02398887674574723</v>
+        <v>-0.05062859233512995</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>50.59660868932935</v>
+        <v>71.20677791735534</v>
       </c>
       <c r="C248" t="n">
-        <v>50.72500397196998</v>
+        <v>71.22452640852607</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.1283952826406249</v>
+        <v>-0.01774849117073529</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>50.60486892442619</v>
+        <v>71.20702947435568</v>
       </c>
       <c r="C249" t="n">
-        <v>50.68583922992444</v>
+        <v>71.22499576062773</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.0809703054982478</v>
+        <v>-0.01796628627205621</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>50.63416964744712</v>
+        <v>71.20814021731958</v>
       </c>
       <c r="C250" t="n">
-        <v>50.74198415625058</v>
+        <v>71.26146953602517</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.1078145088034645</v>
+        <v>-0.05332931870559321</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>50.64255183196614</v>
+        <v>71.21912219975933</v>
       </c>
       <c r="C251" t="n">
-        <v>50.74378305771032</v>
+        <v>71.28253993592216</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.1012312257441792</v>
+        <v>-0.06341773616283319</v>
       </c>
     </row>
     <row r="252">
@@ -3955,13 +3955,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>50.65254246938052</v>
+        <v>71.23795247195457</v>
       </c>
       <c r="C252" t="n">
-        <v>50.65936095615635</v>
+        <v>71.24231848430884</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.006818486775827637</v>
+        <v>-0.004366012354267923</v>
       </c>
     </row>
     <row r="253">
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>50.68831131583291</v>
+        <v>71.2408045326759</v>
       </c>
       <c r="C253" t="n">
-        <v>50.73098044608148</v>
+        <v>71.27237797884182</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.04266913024856933</v>
+        <v>-0.03157344616592184</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>50.89053173071095</v>
+        <v>71.25373563082751</v>
       </c>
       <c r="C254" t="n">
-        <v>50.74202607906479</v>
+        <v>71.27873945025914</v>
       </c>
       <c r="D254" t="n">
-        <v>0.1485056516461611</v>
+        <v>-0.02500381943163177</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>50.99330507264004</v>
+        <v>88.14336566275409</v>
       </c>
       <c r="C255" t="n">
-        <v>50.70206510983554</v>
+        <v>88.16446816224361</v>
       </c>
       <c r="D255" t="n">
-        <v>0.2912399628044966</v>
+        <v>-0.02110249948951548</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>51.04515896799886</v>
+        <v>88.15949051010757</v>
       </c>
       <c r="C256" t="n">
-        <v>50.72695271571617</v>
+        <v>88.20490183617945</v>
       </c>
       <c r="D256" t="n">
-        <v>0.3182062522826854</v>
+        <v>-0.04541132607187137</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>52.65497671799277</v>
+        <v>88.16163625449892</v>
       </c>
       <c r="C257" t="n">
-        <v>52.66581482279535</v>
+        <v>88.25590203281628</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.01083810480257341</v>
+        <v>-0.09426577831736438</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>52.67714054195725</v>
+        <v>88.16773664442276</v>
       </c>
       <c r="C258" t="n">
-        <v>52.85584799797566</v>
+        <v>88.22716918594517</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.1787074560184081</v>
+        <v>-0.05943254152241195</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>52.68324790650669</v>
+        <v>88.19152980824508</v>
       </c>
       <c r="C259" t="n">
-        <v>52.7715155913899</v>
+        <v>88.20804402495543</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.08826768488321335</v>
+        <v>-0.01651421671034825</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>52.7117219794013</v>
+        <v>88.2132499314002</v>
       </c>
       <c r="C260" t="n">
-        <v>52.72626225459179</v>
+        <v>88.23009525368539</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.01454027519049106</v>
+        <v>-0.01684532228519231</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>52.72844002136346</v>
+        <v>88.22528616006223</v>
       </c>
       <c r="C261" t="n">
-        <v>52.82181687887346</v>
+        <v>88.22686514054325</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.09337685750999469</v>
+        <v>-0.001578980481028225</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>52.7414878889158</v>
+        <v>88.23546131831233</v>
       </c>
       <c r="C262" t="n">
-        <v>52.86299846218843</v>
+        <v>88.26674536169214</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.12151057327263</v>
+        <v>-0.03128404337981294</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>52.74381764246848</v>
+        <v>88.43117602397733</v>
       </c>
       <c r="C263" t="n">
-        <v>52.80791960181118</v>
+        <v>88.28115804398003</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.06410195934270035</v>
+        <v>0.1500179799973012</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>52.76061671216293</v>
+        <v>90.44404596702441</v>
       </c>
       <c r="C264" t="n">
-        <v>52.78894598476607</v>
+        <v>90.45187538393579</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.02832927260313767</v>
+        <v>-0.007829416911377507</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>52.84029905416292</v>
+        <v>90.45649964805885</v>
       </c>
       <c r="C265" t="n">
-        <v>52.84354000232161</v>
+        <v>90.49468412403716</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.003240948158691026</v>
+        <v>-0.03818447597831209</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>53.46044467360096</v>
+        <v>90.48236522521415</v>
       </c>
       <c r="C266" t="n">
-        <v>53.54231667395342</v>
+        <v>90.49418171726151</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.08187200035246178</v>
+        <v>-0.01181649204735891</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>53.46952974875945</v>
+        <v>90.48472526696902</v>
       </c>
       <c r="C267" t="n">
-        <v>53.5681592714431</v>
+        <v>90.57798041937599</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.09862952268365177</v>
+        <v>-0.09325515240696802</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>53.48501559426244</v>
+        <v>90.48786289845793</v>
       </c>
       <c r="C268" t="n">
-        <v>53.627199740709</v>
+        <v>90.55002061885548</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.1421841464465672</v>
+        <v>-0.06215772039755052</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>53.5558327801799</v>
+        <v>90.53819187901411</v>
       </c>
       <c r="C269" t="n">
-        <v>53.57147668407892</v>
+        <v>90.55780496872099</v>
       </c>
       <c r="D269" t="n">
-        <v>-0.0156439038990257</v>
+        <v>-0.0196130897068798</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>53.55894220679297</v>
+        <v>90.54128130432356</v>
       </c>
       <c r="C270" t="n">
-        <v>53.66917188846065</v>
+        <v>90.55837632628484</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.1102296816676755</v>
+        <v>-0.01709502196128199</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>53.63443415155275</v>
+        <v>90.56591985231155</v>
       </c>
       <c r="C271" t="n">
-        <v>53.64737562118641</v>
+        <v>90.59526926070527</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.01294146963365961</v>
+        <v>-0.02934940839371336</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>53.66138968239129</v>
+        <v>90.65595071482196</v>
       </c>
       <c r="C272" t="n">
-        <v>53.66825162461958</v>
+        <v>90.68352716723257</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.006861942228290729</v>
+        <v>-0.02757645241061368</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>65.28731556526181</v>
+        <v>90.69473956983914</v>
       </c>
       <c r="C273" t="n">
-        <v>65.4465971227058</v>
+        <v>90.72019417886598</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.1592815574439896</v>
+        <v>-0.02545460902683772</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>65.32277319508769</v>
+        <v>90.7240637115648</v>
       </c>
       <c r="C274" t="n">
-        <v>65.43547858390117</v>
+        <v>90.77828344081837</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.112705388813481</v>
+        <v>-0.05421972925357466</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>65.33243689345299</v>
+        <v>90.73314960916541</v>
       </c>
       <c r="C275" t="n">
-        <v>65.46454776436504</v>
+        <v>90.74720139839219</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.1321108709120438</v>
+        <v>-0.01405178922678374</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>65.36075766706506</v>
+        <v>90.78417504174976</v>
       </c>
       <c r="C276" t="n">
-        <v>65.48013721264709</v>
+        <v>90.78538404048453</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.119379545582035</v>
+        <v>-0.001208998734767874</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>65.4176591561139</v>
+        <v>93.75226133438352</v>
       </c>
       <c r="C277" t="n">
-        <v>65.43416620776344</v>
+        <v>93.7895341025975</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.01650705164954047</v>
+        <v>-0.03727276821398107</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>65.42027405477897</v>
+        <v>93.78537877942038</v>
       </c>
       <c r="C278" t="n">
-        <v>65.4233894955934</v>
+        <v>93.90125985242148</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.003115440814426051</v>
+        <v>-0.1158810730010913</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>65.4514067974102</v>
+        <v>93.80939184472618</v>
       </c>
       <c r="C279" t="n">
-        <v>65.48302036170824</v>
+        <v>93.89703649692608</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.0316135642980413</v>
+        <v>-0.08764465219989859</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>65.48603254860186</v>
+        <v>93.82964294751044</v>
       </c>
       <c r="C280" t="n">
-        <v>65.48942653575334</v>
+        <v>93.85694846006575</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.003393987151483202</v>
+        <v>-0.02730551255531566</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>65.77832064598535</v>
+        <v>93.83070237118476</v>
       </c>
       <c r="C281" t="n">
-        <v>65.79258348479759</v>
+        <v>93.88751110521783</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.01426283881224322</v>
+        <v>-0.05680873403306919</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>65.78923814633454</v>
+        <v>93.84321759194802</v>
       </c>
       <c r="C282" t="n">
-        <v>65.95068037078345</v>
+        <v>93.90253716778328</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.1614422244489049</v>
+        <v>-0.05931957583526071</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>65.79173465503719</v>
+        <v>93.86628793390831</v>
       </c>
       <c r="C283" t="n">
-        <v>66.00027786138637</v>
+        <v>93.87184079266248</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.2085432063491766</v>
+        <v>-0.005552858754171552</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>65.79229064857829</v>
+        <v>93.87984413228538</v>
       </c>
       <c r="C284" t="n">
-        <v>65.91736330415696</v>
+        <v>93.88688028771077</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.125072655578677</v>
+        <v>-0.007036155425382162</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>65.89976441146729</v>
+        <v>93.88455279871164</v>
       </c>
       <c r="C285" t="n">
-        <v>65.90130661251315</v>
+        <v>93.90925350663439</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.001542201045864999</v>
+        <v>-0.02470070792274726</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>65.96090509471287</v>
+        <v>93.89848238034131</v>
       </c>
       <c r="C286" t="n">
-        <v>65.99252660112595</v>
+        <v>93.90030319647326</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.03162150641307448</v>
+        <v>-0.001820816131953507</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>66.13893431484077</v>
+        <v>93.90399664748128</v>
       </c>
       <c r="C287" t="n">
-        <v>65.98443629985317</v>
+        <v>93.91129882562795</v>
       </c>
       <c r="D287" t="n">
-        <v>0.1544980149875954</v>
+        <v>-0.007302178146673555</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>66.93870114497568</v>
+        <v>94.127209970392</v>
       </c>
       <c r="C288" t="n">
-        <v>67.08552438658455</v>
+        <v>93.91182039822007</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.1468232416088711</v>
+        <v>0.2153895721719294</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>66.94966944096299</v>
+        <v>94.25731402741461</v>
       </c>
       <c r="C289" t="n">
-        <v>67.04790559193583</v>
+        <v>94.39355479082131</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.09823615097283778</v>
+        <v>-0.136240763406704</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>66.96231159674218</v>
+        <v>94.26283190589056</v>
       </c>
       <c r="C290" t="n">
-        <v>67.06327008413562</v>
+        <v>94.35965876113301</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.1009584873934415</v>
+        <v>-0.0968268552424405</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>66.98203234651226</v>
+        <v>94.27343244992174</v>
       </c>
       <c r="C291" t="n">
-        <v>67.13041214579692</v>
+        <v>94.33525803548021</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.1483797992846689</v>
+        <v>-0.0618255855584664</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>66.9876841293863</v>
+        <v>94.27575433097743</v>
       </c>
       <c r="C292" t="n">
-        <v>67.02595152752144</v>
+        <v>94.32783828084915</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.03826739813514735</v>
+        <v>-0.05208394987171516</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>66.99939271449064</v>
+        <v>94.31558568425166</v>
       </c>
       <c r="C293" t="n">
-        <v>67.06495654562495</v>
+        <v>94.33670529195527</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.06556383113431252</v>
+        <v>-0.02111960770361065</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>67.00569931851349</v>
+        <v>94.31732033340384</v>
       </c>
       <c r="C294" t="n">
-        <v>67.11174094997985</v>
+        <v>94.35728321667315</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.1060416314663541</v>
+        <v>-0.03996288326931108</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>67.06410699826823</v>
+        <v>94.34898901636633</v>
       </c>
       <c r="C295" t="n">
-        <v>67.07566014493054</v>
+        <v>94.38976589353486</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.01155314666230822</v>
+        <v>-0.04077687716852552</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>70.7866315208705</v>
+        <v>94.36424433317443</v>
       </c>
       <c r="C296" t="n">
-        <v>70.86408921212633</v>
+        <v>94.37600401910107</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.07745769125583024</v>
+        <v>-0.01175968592664844</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>70.78690229708057</v>
+        <v>98.65944256986222</v>
       </c>
       <c r="C297" t="n">
-        <v>70.86562629541761</v>
+        <v>98.68165646177555</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.0787239983370398</v>
+        <v>-0.02221389191332435</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>70.80211790448209</v>
+        <v>98.71657939122103</v>
       </c>
       <c r="C298" t="n">
-        <v>71.0093429061735</v>
+        <v>98.73667065980402</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.2072250016914126</v>
+        <v>-0.02009126858298771</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>70.82618140436341</v>
+        <v>98.72875287796671</v>
       </c>
       <c r="C299" t="n">
-        <v>70.97713613843571</v>
+        <v>98.78221860404474</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.1509547340723003</v>
+        <v>-0.05346572607803068</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>70.83883312933067</v>
+        <v>98.74658289396328</v>
       </c>
       <c r="C300" t="n">
-        <v>70.84063728610474</v>
+        <v>98.81440539136648</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.001804156774070975</v>
+        <v>-0.06782249740319912</v>
       </c>
     </row>
     <row r="301">
@@ -4641,2491 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>70.84250534773457</v>
+        <v>98.75941241314143</v>
       </c>
       <c r="C301" t="n">
-        <v>70.86023014321405</v>
+        <v>98.79853098229208</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.0177247954794808</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>70.8570292958496</v>
-      </c>
-      <c r="C302" t="n">
-        <v>70.98624675119447</v>
-      </c>
-      <c r="D302" t="n">
-        <v>-0.1292174553448717</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>70.8710139988531</v>
-      </c>
-      <c r="C303" t="n">
-        <v>70.8906680495395</v>
-      </c>
-      <c r="D303" t="n">
-        <v>-0.01965405068639825</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>70.87708895808807</v>
-      </c>
-      <c r="C304" t="n">
-        <v>70.96119569734877</v>
-      </c>
-      <c r="D304" t="n">
-        <v>-0.08410673926070444</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>70.90370785762889</v>
-      </c>
-      <c r="C305" t="n">
-        <v>70.96401018575118</v>
-      </c>
-      <c r="D305" t="n">
-        <v>-0.06030232812229031</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>71.50086224282673</v>
-      </c>
-      <c r="C306" t="n">
-        <v>70.96262246466577</v>
-      </c>
-      <c r="D306" t="n">
-        <v>0.5382397781609569</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>72.43428083412201</v>
-      </c>
-      <c r="C307" t="n">
-        <v>72.48619311633016</v>
-      </c>
-      <c r="D307" t="n">
-        <v>-0.05191228220814992</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>72.43979446926726</v>
-      </c>
-      <c r="C308" t="n">
-        <v>72.5196226985959</v>
-      </c>
-      <c r="D308" t="n">
-        <v>-0.07982822932864053</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>72.45069757837896</v>
-      </c>
-      <c r="C309" t="n">
-        <v>72.62683775882456</v>
-      </c>
-      <c r="D309" t="n">
-        <v>-0.1761401804456</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>72.47360393654031</v>
-      </c>
-      <c r="C310" t="n">
-        <v>72.50363235728103</v>
-      </c>
-      <c r="D310" t="n">
-        <v>-0.03002842074072021</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>72.47939417767164</v>
-      </c>
-      <c r="C311" t="n">
-        <v>72.62173910657125</v>
-      </c>
-      <c r="D311" t="n">
-        <v>-0.1423449288996181</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>72.49674091701816</v>
-      </c>
-      <c r="C312" t="n">
-        <v>72.61050322826657</v>
-      </c>
-      <c r="D312" t="n">
-        <v>-0.1137623112484079</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>72.49739708457082</v>
-      </c>
-      <c r="C313" t="n">
-        <v>72.50374189599012</v>
-      </c>
-      <c r="D313" t="n">
-        <v>-0.006344811419296548</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>72.54142231869876</v>
-      </c>
-      <c r="C314" t="n">
-        <v>72.54884906302325</v>
-      </c>
-      <c r="D314" t="n">
-        <v>-0.007426744324490642</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>73.05119239906749</v>
-      </c>
-      <c r="C315" t="n">
-        <v>73.25523259661767</v>
-      </c>
-      <c r="D315" t="n">
-        <v>-0.2040401975501851</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>73.05129691236729</v>
-      </c>
-      <c r="C316" t="n">
-        <v>73.16975663385671</v>
-      </c>
-      <c r="D316" t="n">
-        <v>-0.1184597214894154</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
-        <v>315</v>
-      </c>
-      <c r="B317" t="n">
-        <v>73.05814175272589</v>
-      </c>
-      <c r="C317" t="n">
-        <v>73.16503725346983</v>
-      </c>
-      <c r="D317" t="n">
-        <v>-0.1068955007439456</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B318" t="n">
-        <v>73.06608884282367</v>
-      </c>
-      <c r="C318" t="n">
-        <v>73.09510959295569</v>
-      </c>
-      <c r="D318" t="n">
-        <v>-0.02902075013201966</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="n">
-        <v>73.09432325728579</v>
-      </c>
-      <c r="C319" t="n">
-        <v>73.1460624212887</v>
-      </c>
-      <c r="D319" t="n">
-        <v>-0.05173916400291034</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
-        <v>318</v>
-      </c>
-      <c r="B320" t="n">
-        <v>73.09558887584586</v>
-      </c>
-      <c r="C320" t="n">
-        <v>73.12880904908246</v>
-      </c>
-      <c r="D320" t="n">
-        <v>-0.0332201732366002</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B321" t="n">
-        <v>73.10286944918796</v>
-      </c>
-      <c r="C321" t="n">
-        <v>73.13499905245477</v>
-      </c>
-      <c r="D321" t="n">
-        <v>-0.03212960326681014</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
-        <v>320</v>
-      </c>
-      <c r="B322" t="n">
-        <v>73.10887021137137</v>
-      </c>
-      <c r="C322" t="n">
-        <v>73.19098294455449</v>
-      </c>
-      <c r="D322" t="n">
-        <v>-0.08211273318312351</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
-        <v>321</v>
-      </c>
-      <c r="B323" t="n">
-        <v>73.12442688435391</v>
-      </c>
-      <c r="C323" t="n">
-        <v>73.13830784660479</v>
-      </c>
-      <c r="D323" t="n">
-        <v>-0.0138809622508802</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B324" t="n">
-        <v>73.13111840113078</v>
-      </c>
-      <c r="C324" t="n">
-        <v>73.1364208615873</v>
-      </c>
-      <c r="D324" t="n">
-        <v>-0.005302460456519498</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
-        <v>323</v>
-      </c>
-      <c r="B325" t="n">
-        <v>73.16173068859901</v>
-      </c>
-      <c r="C325" t="n">
-        <v>73.21289152704951</v>
-      </c>
-      <c r="D325" t="n">
-        <v>-0.05116083845049957</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>73.19601201019729</v>
-      </c>
-      <c r="C326" t="n">
-        <v>73.19995227911281</v>
-      </c>
-      <c r="D326" t="n">
-        <v>-0.003940268915513911</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>73.225350751053</v>
-      </c>
-      <c r="C327" t="n">
-        <v>73.26957537558303</v>
-      </c>
-      <c r="D327" t="n">
-        <v>-0.04422462453003106</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>73.22864528137784</v>
-      </c>
-      <c r="C328" t="n">
-        <v>73.13450494932228</v>
-      </c>
-      <c r="D328" t="n">
-        <v>0.09414033205555938</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B329" t="n">
-        <v>73.85714561003208</v>
-      </c>
-      <c r="C329" t="n">
-        <v>74.05985707596348</v>
-      </c>
-      <c r="D329" t="n">
-        <v>-0.2027114659314009</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
-        <v>328</v>
-      </c>
-      <c r="B330" t="n">
-        <v>73.86156561970252</v>
-      </c>
-      <c r="C330" t="n">
-        <v>73.86676199227018</v>
-      </c>
-      <c r="D330" t="n">
-        <v>-0.00519637256766714</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
-        <v>329</v>
-      </c>
-      <c r="B331" t="n">
-        <v>73.87793822399912</v>
-      </c>
-      <c r="C331" t="n">
-        <v>73.90618307805968</v>
-      </c>
-      <c r="D331" t="n">
-        <v>-0.02824485406055999</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="B332" t="n">
-        <v>73.88845063631628</v>
-      </c>
-      <c r="C332" t="n">
-        <v>74.05210427493429</v>
-      </c>
-      <c r="D332" t="n">
-        <v>-0.1636536386180154</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B333" t="n">
-        <v>73.89440391808016</v>
-      </c>
-      <c r="C333" t="n">
-        <v>74.04523628686684</v>
-      </c>
-      <c r="D333" t="n">
-        <v>-0.1508323687866806</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
-        <v>332</v>
-      </c>
-      <c r="B334" t="n">
-        <v>73.94234567661447</v>
-      </c>
-      <c r="C334" t="n">
-        <v>73.95780655415152</v>
-      </c>
-      <c r="D334" t="n">
-        <v>-0.01546087753705194</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B335" t="n">
-        <v>73.95149945539491</v>
-      </c>
-      <c r="C335" t="n">
-        <v>74.04309594355276</v>
-      </c>
-      <c r="D335" t="n">
-        <v>-0.09159648815784749</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>73.96058684489489</v>
-      </c>
-      <c r="C336" t="n">
-        <v>74.05143234924226</v>
-      </c>
-      <c r="D336" t="n">
-        <v>-0.09084550434737082</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>73.96815998695239</v>
-      </c>
-      <c r="C337" t="n">
-        <v>74.00838024363044</v>
-      </c>
-      <c r="D337" t="n">
-        <v>-0.04022025667805451</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>73.97757770942633</v>
-      </c>
-      <c r="C338" t="n">
-        <v>74.0614393892762</v>
-      </c>
-      <c r="D338" t="n">
-        <v>-0.0838616798498748</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>73.99326287115011</v>
-      </c>
-      <c r="C339" t="n">
-        <v>74.05149974529169</v>
-      </c>
-      <c r="D339" t="n">
-        <v>-0.05823687414158485</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>73.99651874008234</v>
-      </c>
-      <c r="C340" t="n">
-        <v>74.03906800686546</v>
-      </c>
-      <c r="D340" t="n">
-        <v>-0.04254926678312643</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>74.01783553639704</v>
-      </c>
-      <c r="C341" t="n">
-        <v>74.02176828038712</v>
-      </c>
-      <c r="D341" t="n">
-        <v>-0.00393274399007737</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>74.02111240166795</v>
-      </c>
-      <c r="C342" t="n">
-        <v>74.04166546123156</v>
-      </c>
-      <c r="D342" t="n">
-        <v>-0.02055305956361053</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>74.30866311732868</v>
-      </c>
-      <c r="C343" t="n">
-        <v>74.45165441033197</v>
-      </c>
-      <c r="D343" t="n">
-        <v>-0.1429912930032913</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>74.32901667489045</v>
-      </c>
-      <c r="C344" t="n">
-        <v>74.4065308797955</v>
-      </c>
-      <c r="D344" t="n">
-        <v>-0.07751420490504302</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>74.34343318273967</v>
-      </c>
-      <c r="C345" t="n">
-        <v>74.4702346695004</v>
-      </c>
-      <c r="D345" t="n">
-        <v>-0.1268014867607263</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>74.34932090117621</v>
-      </c>
-      <c r="C346" t="n">
-        <v>74.39359956698488</v>
-      </c>
-      <c r="D346" t="n">
-        <v>-0.0442786658086618</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>74.37608275480834</v>
-      </c>
-      <c r="C347" t="n">
-        <v>74.48813141476145</v>
-      </c>
-      <c r="D347" t="n">
-        <v>-0.1120486599531176</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>74.40544967453742</v>
-      </c>
-      <c r="C348" t="n">
-        <v>74.48414763176616</v>
-      </c>
-      <c r="D348" t="n">
-        <v>-0.07869795722874073</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>74.46527096785591</v>
-      </c>
-      <c r="C349" t="n">
-        <v>74.6476015045854</v>
-      </c>
-      <c r="D349" t="n">
-        <v>-0.1823305367294807</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>74.46721971390286</v>
-      </c>
-      <c r="C350" t="n">
-        <v>74.54268617401425</v>
-      </c>
-      <c r="D350" t="n">
-        <v>-0.07546646011138591</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>74.4703596002352</v>
-      </c>
-      <c r="C351" t="n">
-        <v>74.59592216411838</v>
-      </c>
-      <c r="D351" t="n">
-        <v>-0.1255625638831788</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>74.48284979860092</v>
-      </c>
-      <c r="C352" t="n">
-        <v>74.58245258880414</v>
-      </c>
-      <c r="D352" t="n">
-        <v>-0.09960279020322105</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>74.4852770166888</v>
-      </c>
-      <c r="C353" t="n">
-        <v>74.63835482009823</v>
-      </c>
-      <c r="D353" t="n">
-        <v>-0.1530778034094311</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>74.49731877985332</v>
-      </c>
-      <c r="C354" t="n">
-        <v>74.49930896536284</v>
-      </c>
-      <c r="D354" t="n">
-        <v>-0.001990185509527009</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>74.49913890876995</v>
-      </c>
-      <c r="C355" t="n">
-        <v>74.5847240279823</v>
-      </c>
-      <c r="D355" t="n">
-        <v>-0.08558511921235379</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>74.50762919358245</v>
-      </c>
-      <c r="C356" t="n">
-        <v>74.52363085850402</v>
-      </c>
-      <c r="D356" t="n">
-        <v>-0.01600166492157484</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>74.5140151530115</v>
-      </c>
-      <c r="C357" t="n">
-        <v>74.06449443019265</v>
-      </c>
-      <c r="D357" t="n">
-        <v>0.4495207228188463</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>74.53266268972057</v>
-      </c>
-      <c r="C358" t="n">
-        <v>74.66222127264592</v>
-      </c>
-      <c r="D358" t="n">
-        <v>-0.1295585829253554</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>74.53370147875961</v>
-      </c>
-      <c r="C359" t="n">
-        <v>74.56332009779238</v>
-      </c>
-      <c r="D359" t="n">
-        <v>-0.02961861903277452</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>74.55230493279583</v>
-      </c>
-      <c r="C360" t="n">
-        <v>74.55689522063901</v>
-      </c>
-      <c r="D360" t="n">
-        <v>-0.004590287843171836</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>74.5807818461448</v>
-      </c>
-      <c r="C361" t="n">
-        <v>74.66600312300656</v>
-      </c>
-      <c r="D361" t="n">
-        <v>-0.08522127686175907</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>74.61828223631417</v>
-      </c>
-      <c r="C362" t="n">
-        <v>74.64799633471459</v>
-      </c>
-      <c r="D362" t="n">
-        <v>-0.02971409840041872</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>75.13923713699488</v>
-      </c>
-      <c r="C363" t="n">
-        <v>74.53480699500216</v>
-      </c>
-      <c r="D363" t="n">
-        <v>0.6044301419927223</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>75.2597069437315</v>
-      </c>
-      <c r="C364" t="n">
-        <v>75.38356966026797</v>
-      </c>
-      <c r="D364" t="n">
-        <v>-0.1238627165364647</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>75.27675092254788</v>
-      </c>
-      <c r="C365" t="n">
-        <v>75.34341765305992</v>
-      </c>
-      <c r="D365" t="n">
-        <v>-0.06666673051203986</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>75.28312711791547</v>
-      </c>
-      <c r="C366" t="n">
-        <v>75.29209156530452</v>
-      </c>
-      <c r="D366" t="n">
-        <v>-0.008964447389047336</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>75.3278268796123</v>
-      </c>
-      <c r="C367" t="n">
-        <v>75.42872581628779</v>
-      </c>
-      <c r="D367" t="n">
-        <v>-0.1008989366754918</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>75.37513430978537</v>
-      </c>
-      <c r="C368" t="n">
-        <v>75.38507730559563</v>
-      </c>
-      <c r="D368" t="n">
-        <v>-0.009942995810263255</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>76.29195617954444</v>
-      </c>
-      <c r="C369" t="n">
-        <v>76.29738293001033</v>
-      </c>
-      <c r="D369" t="n">
-        <v>-0.005426750465886698</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>76.30953630992711</v>
-      </c>
-      <c r="C370" t="n">
-        <v>76.48528620589299</v>
-      </c>
-      <c r="D370" t="n">
-        <v>-0.175749895965879</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>76.314435189259</v>
-      </c>
-      <c r="C371" t="n">
-        <v>76.34526039849196</v>
-      </c>
-      <c r="D371" t="n">
-        <v>-0.03082520923295817</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>76.33298512792888</v>
-      </c>
-      <c r="C372" t="n">
-        <v>76.48431147291203</v>
-      </c>
-      <c r="D372" t="n">
-        <v>-0.151326344983147</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>76.36085685360544</v>
-      </c>
-      <c r="C373" t="n">
-        <v>76.37619311749401</v>
-      </c>
-      <c r="D373" t="n">
-        <v>-0.01533626388857101</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>76.36114962873285</v>
-      </c>
-      <c r="C374" t="n">
-        <v>76.45153716695712</v>
-      </c>
-      <c r="D374" t="n">
-        <v>-0.09038753822427736</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>76.36214149122468</v>
-      </c>
-      <c r="C375" t="n">
-        <v>76.38344967846437</v>
-      </c>
-      <c r="D375" t="n">
-        <v>-0.02130818723969696</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>76.39946816395944</v>
-      </c>
-      <c r="C376" t="n">
-        <v>76.44486957083147</v>
-      </c>
-      <c r="D376" t="n">
-        <v>-0.0454014068720312</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>76.44711181816326</v>
-      </c>
-      <c r="C377" t="n">
-        <v>76.49881911703558</v>
-      </c>
-      <c r="D377" t="n">
-        <v>-0.05170729887231573</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>76.45677358331839</v>
-      </c>
-      <c r="C378" t="n">
-        <v>76.48538692825241</v>
-      </c>
-      <c r="D378" t="n">
-        <v>-0.02861334493401557</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>76.45932585006707</v>
-      </c>
-      <c r="C379" t="n">
-        <v>76.4855397845853</v>
-      </c>
-      <c r="D379" t="n">
-        <v>-0.02621393451822485</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>78.14989716704146</v>
-      </c>
-      <c r="C380" t="n">
-        <v>78.20906742175512</v>
-      </c>
-      <c r="D380" t="n">
-        <v>-0.05917025471366344</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>78.16406980172137</v>
-      </c>
-      <c r="C381" t="n">
-        <v>78.32640966878827</v>
-      </c>
-      <c r="D381" t="n">
-        <v>-0.1623398670669047</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>78.17167070236327</v>
-      </c>
-      <c r="C382" t="n">
-        <v>78.237602515116</v>
-      </c>
-      <c r="D382" t="n">
-        <v>-0.06593181275272286</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>78.17219202290146</v>
-      </c>
-      <c r="C383" t="n">
-        <v>78.23803501968158</v>
-      </c>
-      <c r="D383" t="n">
-        <v>-0.06584299678011973</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>78.1997729184308</v>
-      </c>
-      <c r="C384" t="n">
-        <v>78.32708887822149</v>
-      </c>
-      <c r="D384" t="n">
-        <v>-0.1273159597906925</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>78.21215193696914</v>
-      </c>
-      <c r="C385" t="n">
-        <v>78.30443918810958</v>
-      </c>
-      <c r="D385" t="n">
-        <v>-0.09228725114044778</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>78.21726332729091</v>
-      </c>
-      <c r="C386" t="n">
-        <v>78.24845608092909</v>
-      </c>
-      <c r="D386" t="n">
-        <v>-0.03119275363818019</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>78.25272965210731</v>
-      </c>
-      <c r="C387" t="n">
-        <v>78.32847283306702</v>
-      </c>
-      <c r="D387" t="n">
-        <v>-0.07574318095971933</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>78.25454825244344</v>
-      </c>
-      <c r="C388" t="n">
-        <v>78.34431707177926</v>
-      </c>
-      <c r="D388" t="n">
-        <v>-0.08976881933581637</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>78.26391069103974</v>
-      </c>
-      <c r="C389" t="n">
-        <v>78.33679777561665</v>
-      </c>
-      <c r="D389" t="n">
-        <v>-0.07288708457690518</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>78.26958102268894</v>
-      </c>
-      <c r="C390" t="n">
-        <v>78.23861282117932</v>
-      </c>
-      <c r="D390" t="n">
-        <v>0.03096820150962287</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>78.40779170158018</v>
-      </c>
-      <c r="C391" t="n">
-        <v>78.24441312357695</v>
-      </c>
-      <c r="D391" t="n">
-        <v>0.1633785780032326</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>79.35991639025433</v>
-      </c>
-      <c r="C392" t="n">
-        <v>79.40508221393814</v>
-      </c>
-      <c r="D392" t="n">
-        <v>-0.04516582368381705</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>79.40245671498788</v>
-      </c>
-      <c r="C393" t="n">
-        <v>79.57071796636066</v>
-      </c>
-      <c r="D393" t="n">
-        <v>-0.1682612513727832</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>79.41775107669393</v>
-      </c>
-      <c r="C394" t="n">
-        <v>79.56571926862291</v>
-      </c>
-      <c r="D394" t="n">
-        <v>-0.1479681919289817</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>79.46682860849948</v>
-      </c>
-      <c r="C395" t="n">
-        <v>79.47443803940011</v>
-      </c>
-      <c r="D395" t="n">
-        <v>-0.007609430900629377</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>79.47460045786003</v>
-      </c>
-      <c r="C396" t="n">
-        <v>79.51745976348455</v>
-      </c>
-      <c r="D396" t="n">
-        <v>-0.04285930562451767</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>79.50241160157289</v>
-      </c>
-      <c r="C397" t="n">
-        <v>79.56417255421586</v>
-      </c>
-      <c r="D397" t="n">
-        <v>-0.06176095264297032</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>79.51033479479307</v>
-      </c>
-      <c r="C398" t="n">
-        <v>79.55180652983353</v>
-      </c>
-      <c r="D398" t="n">
-        <v>-0.04147173504046009</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>79.52087743057632</v>
-      </c>
-      <c r="C399" t="n">
-        <v>79.43143053761499</v>
-      </c>
-      <c r="D399" t="n">
-        <v>0.0894468929613339</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>80.22532622875075</v>
-      </c>
-      <c r="C400" t="n">
-        <v>80.38103176951762</v>
-      </c>
-      <c r="D400" t="n">
-        <v>-0.1557055407668742</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>80.23241908834703</v>
-      </c>
-      <c r="C401" t="n">
-        <v>80.34461939676599</v>
-      </c>
-      <c r="D401" t="n">
-        <v>-0.1122003084189629</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>80.25677021004682</v>
-      </c>
-      <c r="C402" t="n">
-        <v>80.31246311501114</v>
-      </c>
-      <c r="D402" t="n">
-        <v>-0.05569290496431734</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>80.26541880541915</v>
-      </c>
-      <c r="C403" t="n">
-        <v>80.33209090910825</v>
-      </c>
-      <c r="D403" t="n">
-        <v>-0.06667210368910048</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>80.27819586321287</v>
-      </c>
-      <c r="C404" t="n">
-        <v>80.35104595654613</v>
-      </c>
-      <c r="D404" t="n">
-        <v>-0.07285009333325831</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>80.29643293976208</v>
-      </c>
-      <c r="C405" t="n">
-        <v>80.32303955747643</v>
-      </c>
-      <c r="D405" t="n">
-        <v>-0.02660661771435002</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>80.30021532004452</v>
-      </c>
-      <c r="C406" t="n">
-        <v>80.41146381255035</v>
-      </c>
-      <c r="D406" t="n">
-        <v>-0.1112484925058368</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>80.32309035995553</v>
-      </c>
-      <c r="C407" t="n">
-        <v>80.40472481422951</v>
-      </c>
-      <c r="D407" t="n">
-        <v>-0.08163445427398131</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>80.34387637001716</v>
-      </c>
-      <c r="C408" t="n">
-        <v>80.39721717570391</v>
-      </c>
-      <c r="D408" t="n">
-        <v>-0.05334080568675859</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>80.3462434618195</v>
-      </c>
-      <c r="C409" t="n">
-        <v>80.3769635553451</v>
-      </c>
-      <c r="D409" t="n">
-        <v>-0.03072009352560201</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>80.37405953171508</v>
-      </c>
-      <c r="C410" t="n">
-        <v>80.38389955676527</v>
-      </c>
-      <c r="D410" t="n">
-        <v>-0.009840025050195322</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>86.58157124853267</v>
-      </c>
-      <c r="C411" t="n">
-        <v>86.73191989606696</v>
-      </c>
-      <c r="D411" t="n">
-        <v>-0.1503486475342868</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>86.58328197499428</v>
-      </c>
-      <c r="C412" t="n">
-        <v>86.78830562530504</v>
-      </c>
-      <c r="D412" t="n">
-        <v>-0.2050236503107641</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>86.58894389523729</v>
-      </c>
-      <c r="C413" t="n">
-        <v>86.75492590423028</v>
-      </c>
-      <c r="D413" t="n">
-        <v>-0.1659820089929838</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>86.61812404505372</v>
-      </c>
-      <c r="C414" t="n">
-        <v>86.71422845385165</v>
-      </c>
-      <c r="D414" t="n">
-        <v>-0.09610440879792748</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>86.62450185664916</v>
-      </c>
-      <c r="C415" t="n">
-        <v>86.64769089100406</v>
-      </c>
-      <c r="D415" t="n">
-        <v>-0.02318903435489972</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>86.66219765261329</v>
-      </c>
-      <c r="C416" t="n">
-        <v>86.76953668597022</v>
-      </c>
-      <c r="D416" t="n">
-        <v>-0.1073390333569364</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>86.66823390052629</v>
-      </c>
-      <c r="C417" t="n">
-        <v>86.72730672942575</v>
-      </c>
-      <c r="D417" t="n">
-        <v>-0.05907282889945975</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>86.67789862057283</v>
-      </c>
-      <c r="C418" t="n">
-        <v>86.69338461889392</v>
-      </c>
-      <c r="D418" t="n">
-        <v>-0.01548599832108266</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>86.67941656988907</v>
-      </c>
-      <c r="C419" t="n">
-        <v>86.72392330987918</v>
-      </c>
-      <c r="D419" t="n">
-        <v>-0.04450673999011201</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>91.14457149364711</v>
-      </c>
-      <c r="C420" t="n">
-        <v>91.33277022973219</v>
-      </c>
-      <c r="D420" t="n">
-        <v>-0.1881987360850843</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>91.15441131278843</v>
-      </c>
-      <c r="C421" t="n">
-        <v>91.24375853178489</v>
-      </c>
-      <c r="D421" t="n">
-        <v>-0.08934721899646547</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>91.17768622139346</v>
-      </c>
-      <c r="C422" t="n">
-        <v>91.20554646618562</v>
-      </c>
-      <c r="D422" t="n">
-        <v>-0.02786024479216564</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>91.21094384065637</v>
-      </c>
-      <c r="C423" t="n">
-        <v>91.23410089505595</v>
-      </c>
-      <c r="D423" t="n">
-        <v>-0.02315705439957583</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>91.22080808139296</v>
-      </c>
-      <c r="C424" t="n">
-        <v>91.22461677998231</v>
-      </c>
-      <c r="D424" t="n">
-        <v>-0.003808698589352844</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>91.22965983407845</v>
-      </c>
-      <c r="C425" t="n">
-        <v>91.32643080396419</v>
-      </c>
-      <c r="D425" t="n">
-        <v>-0.09677096988573908</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>91.23258281210072</v>
-      </c>
-      <c r="C426" t="n">
-        <v>91.26680342570801</v>
-      </c>
-      <c r="D426" t="n">
-        <v>-0.0342206136072889</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>91.2380404875708</v>
-      </c>
-      <c r="C427" t="n">
-        <v>91.26432961597786</v>
-      </c>
-      <c r="D427" t="n">
-        <v>-0.02628912840705766</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>91.26618725721973</v>
-      </c>
-      <c r="C428" t="n">
-        <v>91.34055209993893</v>
-      </c>
-      <c r="D428" t="n">
-        <v>-0.07436484271920563</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>91.27866166088815</v>
-      </c>
-      <c r="C429" t="n">
-        <v>91.30005268122304</v>
-      </c>
-      <c r="D429" t="n">
-        <v>-0.02139102033488882</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>91.33187340869711</v>
-      </c>
-      <c r="C430" t="n">
-        <v>91.33295820364592</v>
-      </c>
-      <c r="D430" t="n">
-        <v>-0.001084794948809531</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>91.36631176646544</v>
-      </c>
-      <c r="C431" t="n">
-        <v>91.25861267956932</v>
-      </c>
-      <c r="D431" t="n">
-        <v>0.107699086896119</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>96.55385655608941</v>
-      </c>
-      <c r="C432" t="n">
-        <v>96.63933286291456</v>
-      </c>
-      <c r="D432" t="n">
-        <v>-0.08547630682514296</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>96.55762006556283</v>
-      </c>
-      <c r="C433" t="n">
-        <v>96.74655359357585</v>
-      </c>
-      <c r="D433" t="n">
-        <v>-0.188933528013024</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>96.57193369560156</v>
-      </c>
-      <c r="C434" t="n">
-        <v>96.74788946654931</v>
-      </c>
-      <c r="D434" t="n">
-        <v>-0.1759557709477519</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>96.57861897378859</v>
-      </c>
-      <c r="C435" t="n">
-        <v>96.73049104165244</v>
-      </c>
-      <c r="D435" t="n">
-        <v>-0.1518720678638488</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>96.58627806002639</v>
-      </c>
-      <c r="C436" t="n">
-        <v>96.74729119212756</v>
-      </c>
-      <c r="D436" t="n">
-        <v>-0.161013132101175</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>96.58975022559898</v>
-      </c>
-      <c r="C437" t="n">
-        <v>96.69148495631381</v>
-      </c>
-      <c r="D437" t="n">
-        <v>-0.1017347307148384</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>96.59586064907135</v>
-      </c>
-      <c r="C438" t="n">
-        <v>96.69791230573364</v>
-      </c>
-      <c r="D438" t="n">
-        <v>-0.1020516566622831</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>96.59610196484914</v>
-      </c>
-      <c r="C439" t="n">
-        <v>96.72349203184038</v>
-      </c>
-      <c r="D439" t="n">
-        <v>-0.1273900669912393</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>96.60008745813512</v>
-      </c>
-      <c r="C440" t="n">
-        <v>96.72624455964718</v>
-      </c>
-      <c r="D440" t="n">
-        <v>-0.1261571015120637</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>96.60342466423307</v>
-      </c>
-      <c r="C441" t="n">
-        <v>96.70042471490628</v>
-      </c>
-      <c r="D441" t="n">
-        <v>-0.09700005067320205</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>96.62912494959889</v>
-      </c>
-      <c r="C442" t="n">
-        <v>96.67799265028373</v>
-      </c>
-      <c r="D442" t="n">
-        <v>-0.0488677006848377</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>96.63682796312578</v>
-      </c>
-      <c r="C443" t="n">
-        <v>96.69928739677306</v>
-      </c>
-      <c r="D443" t="n">
-        <v>-0.0624594336472768</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>96.64013103254494</v>
-      </c>
-      <c r="C444" t="n">
-        <v>96.72350436632128</v>
-      </c>
-      <c r="D444" t="n">
-        <v>-0.08337333377633627</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>96.66356281313067</v>
-      </c>
-      <c r="C445" t="n">
-        <v>96.69090224196745</v>
-      </c>
-      <c r="D445" t="n">
-        <v>-0.02733942883678253</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>96.66954933201626</v>
-      </c>
-      <c r="C446" t="n">
-        <v>96.69156720984236</v>
-      </c>
-      <c r="D446" t="n">
-        <v>-0.02201787782610154</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>96.6970866354953</v>
-      </c>
-      <c r="C447" t="n">
-        <v>96.83177912070762</v>
-      </c>
-      <c r="D447" t="n">
-        <v>-0.1346924852123266</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>96.71678345040863</v>
-      </c>
-      <c r="C448" t="n">
-        <v>96.7713250867381</v>
-      </c>
-      <c r="D448" t="n">
-        <v>-0.05454163632947484</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>96.72310815773747</v>
-      </c>
-      <c r="C449" t="n">
-        <v>96.74636891202432</v>
-      </c>
-      <c r="D449" t="n">
-        <v>-0.02326075428685215</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>96.7432097037904</v>
-      </c>
-      <c r="C450" t="n">
-        <v>96.77262742278026</v>
-      </c>
-      <c r="D450" t="n">
-        <v>-0.0294177189898619</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>96.7491917171704</v>
-      </c>
-      <c r="C451" t="n">
-        <v>96.86694671371006</v>
-      </c>
-      <c r="D451" t="n">
-        <v>-0.1177549965396594</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>96.74927911770806</v>
-      </c>
-      <c r="C452" t="n">
-        <v>96.86817366813469</v>
-      </c>
-      <c r="D452" t="n">
-        <v>-0.1188945504266314</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>96.75043878453963</v>
-      </c>
-      <c r="C453" t="n">
-        <v>96.86689745678798</v>
-      </c>
-      <c r="D453" t="n">
-        <v>-0.1164586722483563</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>96.75115475863534</v>
-      </c>
-      <c r="C454" t="n">
-        <v>96.75491321754973</v>
-      </c>
-      <c r="D454" t="n">
-        <v>-0.003758458914390417</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>96.80242762899415</v>
-      </c>
-      <c r="C455" t="n">
-        <v>96.83378730284278</v>
-      </c>
-      <c r="D455" t="n">
-        <v>-0.03135967384862681</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>97.07252171473948</v>
-      </c>
-      <c r="C456" t="n">
-        <v>96.82981402673948</v>
-      </c>
-      <c r="D456" t="n">
-        <v>0.2427076879999959</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>97.38515485326656</v>
-      </c>
-      <c r="C457" t="n">
-        <v>97.45175142905704</v>
-      </c>
-      <c r="D457" t="n">
-        <v>-0.06659657579048428</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>97.38702879252776</v>
-      </c>
-      <c r="C458" t="n">
-        <v>97.5868989371659</v>
-      </c>
-      <c r="D458" t="n">
-        <v>-0.1998701446381403</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>97.40164021404169</v>
-      </c>
-      <c r="C459" t="n">
-        <v>97.51552427052496</v>
-      </c>
-      <c r="D459" t="n">
-        <v>-0.1138840564832719</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>97.405109430842</v>
-      </c>
-      <c r="C460" t="n">
-        <v>97.58445360689801</v>
-      </c>
-      <c r="D460" t="n">
-        <v>-0.1793441760560057</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>97.4168582932206</v>
-      </c>
-      <c r="C461" t="n">
-        <v>97.43165010179857</v>
-      </c>
-      <c r="D461" t="n">
-        <v>-0.01479180857796791</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>97.43527457707511</v>
-      </c>
-      <c r="C462" t="n">
-        <v>97.51523082313263</v>
-      </c>
-      <c r="D462" t="n">
-        <v>-0.07995624605752027</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>97.44627875439531</v>
-      </c>
-      <c r="C463" t="n">
-        <v>97.49860241723917</v>
-      </c>
-      <c r="D463" t="n">
-        <v>-0.05232366284386103</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>97.48366770862118</v>
-      </c>
-      <c r="C464" t="n">
-        <v>97.51263849109401</v>
-      </c>
-      <c r="D464" t="n">
-        <v>-0.02897078247282536</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>97.49651336696623</v>
-      </c>
-      <c r="C465" t="n">
-        <v>97.51437573698045</v>
-      </c>
-      <c r="D465" t="n">
-        <v>-0.01786237001422819</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>97.5691326816312</v>
-      </c>
-      <c r="C466" t="n">
-        <v>97.57695973075093</v>
-      </c>
-      <c r="D466" t="n">
-        <v>-0.007827049119725871</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>97.59239824390296</v>
-      </c>
-      <c r="C467" t="n">
-        <v>97.60479947182031</v>
-      </c>
-      <c r="D467" t="n">
-        <v>-0.01240122791735132</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>99.7717350387896</v>
-      </c>
-      <c r="C468" t="n">
-        <v>99.8347749927339</v>
-      </c>
-      <c r="D468" t="n">
-        <v>-0.06303995394429762</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>99.77443482267849</v>
-      </c>
-      <c r="C469" t="n">
-        <v>99.90475998442568</v>
-      </c>
-      <c r="D469" t="n">
-        <v>-0.1303251617471943</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>99.78024024124547</v>
-      </c>
-      <c r="C470" t="n">
-        <v>99.8540978437326</v>
-      </c>
-      <c r="D470" t="n">
-        <v>-0.0738576024871378</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>99.81000421271865</v>
-      </c>
-      <c r="C471" t="n">
-        <v>99.83524801360269</v>
-      </c>
-      <c r="D471" t="n">
-        <v>-0.02524380088404143</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>99.83939358741924</v>
-      </c>
-      <c r="C472" t="n">
-        <v>99.89670871340988</v>
-      </c>
-      <c r="D472" t="n">
-        <v>-0.05731512599064104</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>99.86329772113801</v>
-      </c>
-      <c r="C473" t="n">
-        <v>99.97017892815303</v>
-      </c>
-      <c r="D473" t="n">
-        <v>-0.1068812070150216</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>99.88779898489724</v>
-      </c>
-      <c r="C474" t="n">
-        <v>99.96141626091718</v>
-      </c>
-      <c r="D474" t="n">
-        <v>-0.07361727601993096</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>99.90009216974131</v>
-      </c>
-      <c r="C475" t="n">
-        <v>99.93921468962249</v>
-      </c>
-      <c r="D475" t="n">
-        <v>-0.03912251988117532</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>99.90835835348268</v>
-      </c>
-      <c r="C476" t="n">
-        <v>99.90859015876651</v>
-      </c>
-      <c r="D476" t="n">
-        <v>-0.0002318052838319318</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>99.94076995553607</v>
-      </c>
-      <c r="C477" t="n">
-        <v>99.95359184638782</v>
-      </c>
-      <c r="D477" t="n">
-        <v>-0.01282189085175389</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>99.96605295948144</v>
-      </c>
-      <c r="C478" t="n">
-        <v>99.96949824862952</v>
-      </c>
-      <c r="D478" t="n">
-        <v>-0.003445289148075403</v>
+        <v>-0.03911856915064504</v>
       </c>
     </row>
   </sheetData>
